--- a/lemmatizer/lemma_list.xlsx
+++ b/lemmatizer/lemma_list.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr codeName="ThisWorkbook" autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25915"/>
+  <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="264" yWindow="336" windowWidth="21540" windowHeight="12324"/>
+    <workbookView xWindow="260" yWindow="340" windowWidth="21540" windowHeight="12320"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" calcMode="manual" concurrentCalc="0"/>
+  <calcPr calcId="140001" calcMode="manual" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19644" uniqueCount="4985">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19648" uniqueCount="4997">
   <si>
     <t>V</t>
   </si>
@@ -14976,13 +14976,49 @@
   </si>
   <si>
     <t>soak</t>
+  </si>
+  <si>
+    <t>ϫⲱϩⲙ̄</t>
+  </si>
+  <si>
+    <t>ϫⲱⲱⲕⲉ</t>
+  </si>
+  <si>
+    <t>sting, bite</t>
+  </si>
+  <si>
+    <t>ϫⲏⲣ/ϫⲱⲣ</t>
+  </si>
+  <si>
+    <t>be happy/examine</t>
+  </si>
+  <si>
+    <t>ϫⲁ(ⲁ)ϫⲉ</t>
+  </si>
+  <si>
+    <t>ϫⲓ/ϫⲟ</t>
+  </si>
+  <si>
+    <t>ϫⲛⲟⲩ/ϫⲛⲁ</t>
+  </si>
+  <si>
+    <t>ask/quench</t>
+  </si>
+  <si>
+    <t>ϫⲱⲱⲃⲉ</t>
+  </si>
+  <si>
+    <t>ϩϫⲟⲡϫⲡ</t>
+  </si>
+  <si>
+    <t>lay down</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -15031,12 +15067,24 @@
       <name val="Antinoou"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF008000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -15113,12 +15161,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="63">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -15485,18 +15535,18 @@
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:H5245"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E135" sqref="E135"/>
+    <sheetView tabSelected="1" topLeftCell="A166" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D176" sqref="D176"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="20.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.77734375" style="1"/>
+    <col min="4" max="5" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.4">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>4877</v>
       </c>
@@ -18156,7 +18206,7 @@
         <v>0</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>1</v>
+        <v>4985</v>
       </c>
       <c r="G136" t="s">
         <v>4837</v>
@@ -18173,7 +18223,7 @@
         <v>39</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>1</v>
+        <v>4985</v>
       </c>
       <c r="G137" t="s">
         <v>4837</v>
@@ -18189,8 +18239,8 @@
       <c r="C138" t="s">
         <v>39</v>
       </c>
-      <c r="D138" s="1" t="s">
-        <v>1</v>
+      <c r="D138" s="5" t="s">
+        <v>4990</v>
       </c>
       <c r="G138" t="s">
         <v>4782</v>
@@ -18207,7 +18257,7 @@
         <v>0</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>1</v>
+        <v>693</v>
       </c>
       <c r="G139" t="s">
         <v>4838</v>
@@ -18223,8 +18273,8 @@
       <c r="C140" t="s">
         <v>0</v>
       </c>
-      <c r="D140" s="1" t="s">
-        <v>1</v>
+      <c r="D140" s="5" t="s">
+        <v>693</v>
       </c>
       <c r="G140" t="s">
         <v>4838</v>
@@ -18241,7 +18291,10 @@
         <v>0</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>1</v>
+        <v>4986</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>4987</v>
       </c>
       <c r="G141" t="s">
         <v>4756</v>
@@ -18258,7 +18311,7 @@
         <v>0</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>1</v>
+        <v>653</v>
       </c>
       <c r="G142" t="s">
         <v>4838</v>
@@ -18275,7 +18328,7 @@
         <v>0</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>1</v>
+        <v>4991</v>
       </c>
       <c r="G143" t="s">
         <v>4756</v>
@@ -18292,7 +18345,7 @@
         <v>39</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>1</v>
+        <v>741</v>
       </c>
       <c r="G144" t="s">
         <v>4782</v>
@@ -18309,7 +18362,7 @@
         <v>39</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>1</v>
+        <v>744</v>
       </c>
       <c r="G145" t="s">
         <v>4782</v>
@@ -18326,7 +18379,10 @@
         <v>39</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>1</v>
+        <v>4988</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>4989</v>
       </c>
       <c r="G146" t="s">
         <v>4782</v>
@@ -18343,7 +18399,7 @@
         <v>39</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>1</v>
+        <v>660</v>
       </c>
       <c r="G147" t="s">
         <v>4782</v>
@@ -18360,7 +18416,7 @@
         <v>24</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>1</v>
+        <v>660</v>
       </c>
       <c r="G148" t="s">
         <v>4731</v>
@@ -18377,7 +18433,7 @@
         <v>24</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>1</v>
+        <v>675</v>
       </c>
       <c r="G149" t="s">
         <v>4732</v>
@@ -18394,7 +18450,7 @@
         <v>0</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>1</v>
+        <v>660</v>
       </c>
       <c r="G150" t="s">
         <v>4838</v>
@@ -18410,7 +18466,7 @@
       <c r="C151" t="s">
         <v>0</v>
       </c>
-      <c r="D151" s="1" t="s">
+      <c r="D151" s="5" t="s">
         <v>1</v>
       </c>
     </row>
@@ -18425,7 +18481,10 @@
         <v>0</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>1</v>
+        <v>4992</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>4993</v>
       </c>
       <c r="G152" t="s">
         <v>4756</v>
@@ -18442,7 +18501,7 @@
         <v>0</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>1</v>
+        <v>703</v>
       </c>
       <c r="G153" t="s">
         <v>4787</v>
@@ -18459,7 +18518,7 @@
         <v>0</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>1</v>
+        <v>704</v>
       </c>
       <c r="G154" t="s">
         <v>4787</v>
@@ -18476,7 +18535,7 @@
         <v>0</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>1</v>
+        <v>744</v>
       </c>
       <c r="G155" t="s">
         <v>4838</v>
@@ -18493,7 +18552,7 @@
         <v>39</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>1</v>
+        <v>750</v>
       </c>
       <c r="G156" t="s">
         <v>4782</v>
@@ -18510,7 +18569,7 @@
         <v>0</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>1</v>
+        <v>740</v>
       </c>
       <c r="G157" t="s">
         <v>4838</v>
@@ -18527,7 +18586,7 @@
         <v>0</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>1</v>
+        <v>4994</v>
       </c>
       <c r="G158" t="s">
         <v>4838</v>
@@ -18544,7 +18603,7 @@
         <v>0</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>1</v>
+        <v>756</v>
       </c>
       <c r="G159" t="s">
         <v>4837</v>
@@ -18561,7 +18620,7 @@
         <v>39</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>1</v>
+        <v>736</v>
       </c>
       <c r="G160" t="s">
         <v>4837</v>
@@ -18577,8 +18636,8 @@
       <c r="C161" t="s">
         <v>0</v>
       </c>
-      <c r="D161" s="1" t="s">
-        <v>1</v>
+      <c r="D161" s="5" t="s">
+        <v>756</v>
       </c>
       <c r="G161" t="s">
         <v>4837</v>
@@ -18595,7 +18654,7 @@
         <v>39</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>1</v>
+        <v>756</v>
       </c>
       <c r="G162" t="s">
         <v>4837</v>
@@ -18612,7 +18671,7 @@
         <v>0</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>1</v>
+        <v>4995</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -18626,7 +18685,7 @@
         <v>39</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>1</v>
+        <v>693</v>
       </c>
       <c r="G164" t="s">
         <v>4782</v>
@@ -18643,7 +18702,7 @@
         <v>0</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>1</v>
+        <v>734</v>
       </c>
       <c r="G165" t="s">
         <v>4841</v>
@@ -18660,7 +18719,7 @@
         <v>0</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>1</v>
+        <v>733</v>
       </c>
       <c r="G166" t="s">
         <v>4756</v>
@@ -18677,7 +18736,7 @@
         <v>0</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>1</v>
+        <v>733</v>
       </c>
       <c r="G167" t="s">
         <v>4838</v>
@@ -18694,7 +18753,7 @@
         <v>0</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>1</v>
+        <v>734</v>
       </c>
       <c r="G168" t="s">
         <v>4787</v>
@@ -18711,7 +18770,7 @@
         <v>39</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>1</v>
+        <v>736</v>
       </c>
       <c r="G169" t="s">
         <v>4782</v>
@@ -18728,7 +18787,7 @@
         <v>39</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>1</v>
+        <v>736</v>
       </c>
       <c r="G170" t="s">
         <v>4782</v>
@@ -18745,7 +18804,10 @@
         <v>0</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>1</v>
+        <v>739</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>4996</v>
       </c>
       <c r="G171" t="s">
         <v>4787</v>
@@ -18762,7 +18824,7 @@
         <v>0</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>1</v>
+        <v>740</v>
       </c>
       <c r="G172" t="s">
         <v>4788</v>
@@ -18779,7 +18841,7 @@
         <v>0</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>1</v>
+        <v>741</v>
       </c>
       <c r="G173" t="s">
         <v>4842</v>
@@ -18796,7 +18858,7 @@
         <v>0</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>1</v>
+        <v>827</v>
       </c>
       <c r="G174" t="s">
         <v>4756</v>
@@ -18813,7 +18875,7 @@
         <v>39</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>1</v>
+        <v>827</v>
       </c>
       <c r="G175" t="s">
         <v>4782</v>
@@ -18829,8 +18891,8 @@
       <c r="C176" t="s">
         <v>0</v>
       </c>
-      <c r="D176" s="1" t="s">
-        <v>1</v>
+      <c r="D176" s="6" t="s">
+        <v>827</v>
       </c>
       <c r="G176" t="s">
         <v>4838</v>
@@ -32295,7 +32357,7 @@
         <v>4779</v>
       </c>
     </row>
-    <row r="972" spans="1:7">
+    <row r="972" spans="1:7" ht="15">
       <c r="A972">
         <v>9</v>
       </c>
@@ -99830,7 +99892,7 @@
     <sortCondition ref="B2:B4826"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -99846,7 +99908,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -99864,7 +99926,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/lemmatizer/lemma_list.xlsx
+++ b/lemmatizer/lemma_list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25915"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="260" yWindow="340" windowWidth="21540" windowHeight="12320"/>
+    <workbookView xWindow="260" yWindow="1800" windowWidth="21540" windowHeight="12320"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19648" uniqueCount="4997">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19645" uniqueCount="5031">
   <si>
     <t>V</t>
   </si>
@@ -14993,9 +14993,6 @@
     <t>be happy/examine</t>
   </si>
   <si>
-    <t>ϫⲁ(ⲁ)ϫⲉ</t>
-  </si>
-  <si>
     <t>ϫⲓ/ϫⲟ</t>
   </si>
   <si>
@@ -15012,13 +15009,118 @@
   </si>
   <si>
     <t>lay down</t>
+  </si>
+  <si>
+    <t>ϭⲱⲱⲗⲉ</t>
+  </si>
+  <si>
+    <t>ϭⲱⲗⲡ̄</t>
+  </si>
+  <si>
+    <t>ϭⲱϫⲃ̄</t>
+  </si>
+  <si>
+    <t>ϭⲱⲛⲧ̄</t>
+  </si>
+  <si>
+    <t>ⲧⲥ̄ⲧⲟ</t>
+  </si>
+  <si>
+    <t>ⲧⲥ̄ⲧⲉ</t>
+  </si>
+  <si>
+    <t>ⲧⲥ̄ⲓⲟ</t>
+  </si>
+  <si>
+    <t>ⲧⲥ̄ⲓⲉ</t>
+  </si>
+  <si>
+    <t>ⲱⲙⲥ̄</t>
+  </si>
+  <si>
+    <t>ⲱⲙⲕ̄</t>
+  </si>
+  <si>
+    <t>ⲱⲗ</t>
+  </si>
+  <si>
+    <t>ⲱⲕⲙ̄</t>
+  </si>
+  <si>
+    <t>ⲱϥⲉ</t>
+  </si>
+  <si>
+    <t>ⲱⲃϣ̄</t>
+  </si>
+  <si>
+    <t>ⲱϭⲧ̄</t>
+  </si>
+  <si>
+    <t>ⲱϩⲥ̄</t>
+  </si>
+  <si>
+    <t>ⲱϥⲧ̄</t>
+  </si>
+  <si>
+    <t>ⲱϣⲙ̄</t>
+  </si>
+  <si>
+    <t>ⲛ̄ⲧⲛ̄</t>
+  </si>
+  <si>
+    <t>ⲛⲟⲩϭⲥ̄</t>
+  </si>
+  <si>
+    <t>ⲛⲟⲩϣⲡ̄</t>
+  </si>
+  <si>
+    <t>ⲛⲁϩⲣⲏⲛ̄</t>
+  </si>
+  <si>
+    <t>ⲛⲉⲥⲉ</t>
+  </si>
+  <si>
+    <t>ⲛⲟⲩϩⲙ̄</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ⲛⲟⲩϩⲙ̄ </t>
+  </si>
+  <si>
+    <t>ⲛⲁϩⲣⲛ̄</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ⲛⲟⲩϩⲙ </t>
+  </si>
+  <si>
+    <t>ⲛ̄ϣⲟⲧ</t>
+  </si>
+  <si>
+    <t>ϩⲛ̄</t>
+  </si>
+  <si>
+    <t>ⲁⲗⲉ? Ⲗⲟ?</t>
+  </si>
+  <si>
+    <t>ⲁϫⲛ̄</t>
+  </si>
+  <si>
+    <t>ⲕⲱⲣϣ̄</t>
+  </si>
+  <si>
+    <t>ⲁⲥⲁⲓ</t>
+  </si>
+  <si>
+    <t>ⲃⲁⲁⲃⲉ</t>
+  </si>
+  <si>
+    <t>ⲃⲱⲧⲉ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -15066,8 +15168,12 @@
       <color rgb="FF000000"/>
       <name val="Antinoou"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Antinoou"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -15077,12 +15183,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF008000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -15161,14 +15261,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="63">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -15535,8 +15636,8 @@
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:H5245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D176" sqref="D176"/>
+    <sheetView tabSelected="1" topLeftCell="A578" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D545" sqref="D545"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -18239,8 +18340,8 @@
       <c r="C138" t="s">
         <v>39</v>
       </c>
-      <c r="D138" s="5" t="s">
-        <v>4990</v>
+      <c r="D138" s="6" t="s">
+        <v>631</v>
       </c>
       <c r="G138" t="s">
         <v>4782</v>
@@ -18328,7 +18429,7 @@
         <v>0</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>4991</v>
+        <v>4990</v>
       </c>
       <c r="G143" t="s">
         <v>4756</v>
@@ -18481,10 +18582,10 @@
         <v>0</v>
       </c>
       <c r="D152" s="1" t="s">
+        <v>4991</v>
+      </c>
+      <c r="E152" s="1" t="s">
         <v>4992</v>
-      </c>
-      <c r="E152" s="1" t="s">
-        <v>4993</v>
       </c>
       <c r="G152" t="s">
         <v>4756</v>
@@ -18586,7 +18687,7 @@
         <v>0</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>4994</v>
+        <v>4993</v>
       </c>
       <c r="G158" t="s">
         <v>4838</v>
@@ -18671,7 +18772,7 @@
         <v>0</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>4995</v>
+        <v>4994</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -18807,7 +18908,7 @@
         <v>739</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>4996</v>
+        <v>4995</v>
       </c>
       <c r="G171" t="s">
         <v>4787</v>
@@ -18908,7 +19009,7 @@
       <c r="C177" t="s">
         <v>0</v>
       </c>
-      <c r="D177" s="1" t="s">
+      <c r="D177" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G177" t="s">
@@ -18926,7 +19027,7 @@
         <v>39</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>1</v>
+        <v>853</v>
       </c>
       <c r="G178" t="s">
         <v>4782</v>
@@ -18943,7 +19044,7 @@
         <v>0</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>1</v>
+        <v>4996</v>
       </c>
       <c r="G179" t="s">
         <v>4756</v>
@@ -18960,7 +19061,7 @@
         <v>0</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>1</v>
+        <v>4997</v>
       </c>
       <c r="G180" t="s">
         <v>4756</v>
@@ -18977,7 +19078,7 @@
         <v>0</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>1</v>
+        <v>791</v>
       </c>
       <c r="G181" t="s">
         <v>4756</v>
@@ -18994,7 +19095,7 @@
         <v>0</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>1</v>
+        <v>791</v>
       </c>
       <c r="G182" t="s">
         <v>4756</v>
@@ -19011,7 +19112,7 @@
         <v>0</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>1</v>
+        <v>791</v>
       </c>
       <c r="G183" t="s">
         <v>4838</v>
@@ -19028,7 +19129,7 @@
         <v>0</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>1</v>
+        <v>860</v>
       </c>
       <c r="G184" t="s">
         <v>4756</v>
@@ -19045,7 +19146,7 @@
         <v>39</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>1</v>
+        <v>860</v>
       </c>
       <c r="G185" t="s">
         <v>4782</v>
@@ -19062,7 +19163,7 @@
         <v>39</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>1</v>
+        <v>859</v>
       </c>
       <c r="G186" t="s">
         <v>4782</v>
@@ -19079,7 +19180,7 @@
         <v>0</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>1</v>
+        <v>791</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -19093,7 +19194,7 @@
         <v>0</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>1</v>
+        <v>4997</v>
       </c>
       <c r="G188" t="s">
         <v>4756</v>
@@ -19109,7 +19210,7 @@
       <c r="C189" t="s">
         <v>0</v>
       </c>
-      <c r="D189" s="1" t="s">
+      <c r="D189" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G189" t="s">
@@ -19127,7 +19228,7 @@
         <v>0</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>1</v>
+        <v>791</v>
       </c>
       <c r="G190" t="s">
         <v>4756</v>
@@ -19144,7 +19245,7 @@
         <v>0</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>1</v>
+        <v>791</v>
       </c>
       <c r="G191" t="s">
         <v>4756</v>
@@ -19161,7 +19262,7 @@
         <v>0</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>1</v>
+        <v>791</v>
       </c>
       <c r="G192" t="s">
         <v>4756</v>
@@ -19177,7 +19278,7 @@
       <c r="C193" t="s">
         <v>0</v>
       </c>
-      <c r="D193" s="1" t="s">
+      <c r="D193" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G193" t="s">
@@ -19195,7 +19296,7 @@
         <v>0</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>1</v>
+        <v>791</v>
       </c>
       <c r="G194" t="s">
         <v>4838</v>
@@ -19212,7 +19313,7 @@
         <v>39</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>1</v>
+        <v>4998</v>
       </c>
       <c r="G195" t="s">
         <v>4782</v>
@@ -19229,7 +19330,7 @@
         <v>39</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>1</v>
+        <v>4998</v>
       </c>
       <c r="G196" t="s">
         <v>4782</v>
@@ -19246,7 +19347,7 @@
         <v>0</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>1</v>
+        <v>4997</v>
       </c>
       <c r="G197" t="s">
         <v>4837</v>
@@ -19263,7 +19364,7 @@
         <v>39</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>1</v>
+        <v>4997</v>
       </c>
       <c r="G198" t="s">
         <v>4837</v>
@@ -19280,7 +19381,7 @@
         <v>39</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>1</v>
+        <v>4999</v>
       </c>
       <c r="G199" t="s">
         <v>4782</v>
@@ -19297,7 +19398,7 @@
         <v>0</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>1</v>
+        <v>4996</v>
       </c>
       <c r="G200" t="s">
         <v>4837</v>
@@ -19314,7 +19415,7 @@
         <v>39</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>1</v>
+        <v>4996</v>
       </c>
       <c r="G201" t="s">
         <v>4837</v>
@@ -19331,7 +19432,7 @@
         <v>0</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>1</v>
+        <v>860</v>
       </c>
       <c r="G202" t="s">
         <v>4838</v>
@@ -19348,7 +19449,7 @@
         <v>0</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>1</v>
+        <v>5027</v>
       </c>
       <c r="G203" t="s">
         <v>4838</v>
@@ -19364,7 +19465,7 @@
       <c r="C204" t="s">
         <v>39</v>
       </c>
-      <c r="D204" s="1" t="s">
+      <c r="D204" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G204" t="s">
@@ -19382,7 +19483,7 @@
         <v>0</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>1</v>
+        <v>869</v>
       </c>
       <c r="G205" t="s">
         <v>4838</v>
@@ -19399,7 +19500,7 @@
         <v>0</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>1</v>
+        <v>869</v>
       </c>
       <c r="G206" t="s">
         <v>4756</v>
@@ -19416,7 +19517,7 @@
         <v>0</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>1</v>
+        <v>869</v>
       </c>
       <c r="G207" t="s">
         <v>4838</v>
@@ -19433,7 +19534,7 @@
         <v>0</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>1</v>
+        <v>869</v>
       </c>
       <c r="G208" t="s">
         <v>4838</v>
@@ -19450,7 +19551,7 @@
         <v>39</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>1</v>
+        <v>1587</v>
       </c>
       <c r="G209" t="s">
         <v>4782</v>
@@ -19467,7 +19568,7 @@
         <v>0</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>1</v>
+        <v>1587</v>
       </c>
       <c r="G210" t="s">
         <v>4838</v>
@@ -19484,7 +19585,7 @@
         <v>0</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>1</v>
+        <v>4577</v>
       </c>
       <c r="G211" t="s">
         <v>4838</v>
@@ -19501,7 +19602,7 @@
         <v>275</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>1</v>
+        <v>927</v>
       </c>
       <c r="G212" t="s">
         <v>4783</v>
@@ -19518,7 +19619,7 @@
         <v>275</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>1</v>
+        <v>927</v>
       </c>
       <c r="G213" t="s">
         <v>4783</v>
@@ -19535,7 +19636,7 @@
         <v>24</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>1</v>
+        <v>5026</v>
       </c>
       <c r="G214" t="s">
         <v>4824</v>
@@ -19552,7 +19653,7 @@
         <v>0</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>1</v>
+        <v>1613</v>
       </c>
       <c r="G215" t="s">
         <v>4838</v>
@@ -19568,8 +19669,8 @@
       <c r="C216" t="s">
         <v>0</v>
       </c>
-      <c r="D216" s="1" t="s">
-        <v>1</v>
+      <c r="D216" s="5" t="s">
+        <v>1613</v>
       </c>
       <c r="G216" t="s">
         <v>4838</v>
@@ -19586,7 +19687,7 @@
         <v>39</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>1</v>
+        <v>1021</v>
       </c>
       <c r="G217" t="s">
         <v>4782</v>
@@ -19602,8 +19703,8 @@
       <c r="C218" t="s">
         <v>932</v>
       </c>
-      <c r="D218" s="1" t="s">
-        <v>1</v>
+      <c r="D218" s="5" t="s">
+        <v>5025</v>
       </c>
       <c r="G218" t="s">
         <v>4847</v>
@@ -19620,7 +19721,7 @@
         <v>932</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>1</v>
+        <v>1585</v>
       </c>
       <c r="G219" t="s">
         <v>4848</v>
@@ -19637,7 +19738,7 @@
         <v>932</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>1</v>
+        <v>1585</v>
       </c>
       <c r="G220" t="s">
         <v>4848</v>
@@ -19654,7 +19755,7 @@
         <v>932</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>1</v>
+        <v>1585</v>
       </c>
       <c r="G221" t="s">
         <v>4848</v>
@@ -19671,7 +19772,7 @@
         <v>932</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>1</v>
+        <v>1585</v>
       </c>
       <c r="G222" t="s">
         <v>4848</v>
@@ -19688,7 +19789,7 @@
         <v>932</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>1</v>
+        <v>1585</v>
       </c>
       <c r="G223" t="s">
         <v>4848</v>
@@ -19705,7 +19806,7 @@
         <v>932</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>1</v>
+        <v>1585</v>
       </c>
       <c r="G224" t="s">
         <v>4848</v>
@@ -19721,8 +19822,8 @@
       <c r="C225" t="s">
         <v>932</v>
       </c>
-      <c r="D225" s="1" t="s">
-        <v>1</v>
+      <c r="D225" s="5" t="s">
+        <v>1585</v>
       </c>
       <c r="G225" t="s">
         <v>4848</v>
@@ -19739,7 +19840,7 @@
         <v>932</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>1</v>
+        <v>2965</v>
       </c>
       <c r="G226" t="s">
         <v>4848</v>
@@ -19756,7 +19857,7 @@
         <v>932</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>1</v>
+        <v>1607</v>
       </c>
       <c r="G227" t="s">
         <v>4847</v>
@@ -19773,7 +19874,7 @@
         <v>932</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>1</v>
+        <v>1613</v>
       </c>
       <c r="G228" t="s">
         <v>4848</v>
@@ -19790,7 +19891,7 @@
         <v>39</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>1</v>
+        <v>5028</v>
       </c>
       <c r="G229" t="s">
         <v>4782</v>
@@ -19807,7 +19908,7 @@
         <v>0</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>1</v>
+        <v>5029</v>
       </c>
       <c r="G230" t="s">
         <v>4838</v>
@@ -19824,7 +19925,7 @@
         <v>0</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>1</v>
+        <v>1386</v>
       </c>
       <c r="G231" t="s">
         <v>4756</v>
@@ -19841,7 +19942,7 @@
         <v>0</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>1</v>
+        <v>5030</v>
       </c>
       <c r="G232" t="s">
         <v>4756</v>
@@ -19858,7 +19959,7 @@
         <v>39</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>1</v>
+        <v>1385</v>
       </c>
       <c r="G233" t="s">
         <v>4782</v>
@@ -19875,7 +19976,7 @@
         <v>39</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>1</v>
+        <v>1386</v>
       </c>
       <c r="G234" t="s">
         <v>4782</v>
@@ -19892,7 +19993,7 @@
         <v>39</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>1</v>
+        <v>5030</v>
       </c>
       <c r="G235" t="s">
         <v>4782</v>
@@ -19909,7 +20010,7 @@
         <v>0</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>1</v>
+        <v>1383</v>
       </c>
       <c r="G236" t="s">
         <v>4838</v>
@@ -19925,8 +20026,8 @@
       <c r="C237" t="s">
         <v>0</v>
       </c>
-      <c r="D237" s="1" t="s">
-        <v>1</v>
+      <c r="D237" s="5" t="s">
+        <v>228</v>
       </c>
       <c r="G237" t="s">
         <v>4838</v>
@@ -19943,7 +20044,7 @@
         <v>0</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>1</v>
+        <v>1386</v>
       </c>
       <c r="G238" t="s">
         <v>4792</v>
@@ -19959,9 +20060,7 @@
       <c r="C239" t="s">
         <v>0</v>
       </c>
-      <c r="D239" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="D239" s="5"/>
     </row>
     <row r="240" spans="1:7">
       <c r="A240">
@@ -19974,7 +20073,7 @@
         <v>0</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>1</v>
+        <v>1389</v>
       </c>
       <c r="G240" t="s">
         <v>4838</v>
@@ -19991,7 +20090,7 @@
         <v>0</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>1</v>
+        <v>5030</v>
       </c>
       <c r="G241" t="s">
         <v>4838</v>
@@ -20008,7 +20107,7 @@
         <v>0</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>1</v>
+        <v>1385</v>
       </c>
       <c r="G242" t="s">
         <v>4842</v>
@@ -20025,7 +20124,7 @@
         <v>0</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="G243" t="s">
         <v>4756</v>
@@ -20042,7 +20141,7 @@
         <v>0</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G244" t="s">
         <v>4836</v>
@@ -20059,7 +20158,7 @@
         <v>0</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>1</v>
+        <v>1587</v>
       </c>
       <c r="G245" t="s">
         <v>4756</v>
@@ -20075,7 +20174,7 @@
       <c r="C246" t="s">
         <v>0</v>
       </c>
-      <c r="D246" s="1" t="s">
+      <c r="D246" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G246" t="s">
@@ -20092,9 +20191,6 @@
       <c r="C247" t="s">
         <v>275</v>
       </c>
-      <c r="D247" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="G247" t="s">
         <v>4783</v>
       </c>
@@ -21968,7 +22064,7 @@
         <v>0</v>
       </c>
       <c r="D358" s="1" t="s">
-        <v>1</v>
+        <v>1607</v>
       </c>
       <c r="G358" t="s">
         <v>4727</v>
@@ -21985,7 +22081,7 @@
         <v>24</v>
       </c>
       <c r="D359" s="1" t="s">
-        <v>1</v>
+        <v>5024</v>
       </c>
       <c r="G359" t="s">
         <v>4824</v>
@@ -22002,7 +22098,7 @@
         <v>24</v>
       </c>
       <c r="D360" s="1" t="s">
-        <v>1</v>
+        <v>5024</v>
       </c>
       <c r="G360" t="s">
         <v>4824</v>
@@ -22019,7 +22115,7 @@
         <v>39</v>
       </c>
       <c r="D361" s="1" t="s">
-        <v>1</v>
+        <v>2948</v>
       </c>
       <c r="G361" t="s">
         <v>4782</v>
@@ -22036,7 +22132,7 @@
         <v>24</v>
       </c>
       <c r="D362" s="1" t="s">
-        <v>1</v>
+        <v>5024</v>
       </c>
     </row>
     <row r="363" spans="1:7">
@@ -22050,7 +22146,7 @@
         <v>0</v>
       </c>
       <c r="D363" s="1" t="s">
-        <v>1</v>
+        <v>2931</v>
       </c>
       <c r="G363" t="s">
         <v>4765</v>
@@ -22067,7 +22163,7 @@
         <v>39</v>
       </c>
       <c r="D364" s="1" t="s">
-        <v>1</v>
+        <v>2931</v>
       </c>
       <c r="G364" t="s">
         <v>4765</v>
@@ -22084,7 +22180,7 @@
         <v>275</v>
       </c>
       <c r="D365" s="1" t="s">
-        <v>1</v>
+        <v>2933</v>
       </c>
       <c r="G365" t="s">
         <v>4846</v>
@@ -22101,7 +22197,7 @@
         <v>39</v>
       </c>
       <c r="D366" s="1" t="s">
-        <v>1</v>
+        <v>5023</v>
       </c>
       <c r="G366" t="s">
         <v>4782</v>
@@ -22118,7 +22214,7 @@
         <v>0</v>
       </c>
       <c r="D367" s="1" t="s">
-        <v>1</v>
+        <v>5022</v>
       </c>
       <c r="G367" t="s">
         <v>4838</v>
@@ -22134,8 +22230,8 @@
       <c r="C368" t="s">
         <v>0</v>
       </c>
-      <c r="D368" s="1" t="s">
-        <v>1</v>
+      <c r="D368" s="5" t="s">
+        <v>3084</v>
       </c>
       <c r="G368" t="s">
         <v>4838</v>
@@ -22151,8 +22247,8 @@
       <c r="C369" t="s">
         <v>0</v>
       </c>
-      <c r="D369" s="1" t="s">
-        <v>1</v>
+      <c r="D369" s="5" t="s">
+        <v>3084</v>
       </c>
       <c r="G369" t="s">
         <v>4838</v>
@@ -22169,7 +22265,7 @@
         <v>24</v>
       </c>
       <c r="D370" s="1" t="s">
-        <v>1</v>
+        <v>5021</v>
       </c>
       <c r="G370" t="s">
         <v>4824</v>
@@ -22185,8 +22281,8 @@
       <c r="C371" t="s">
         <v>0</v>
       </c>
-      <c r="D371" s="1" t="s">
-        <v>1</v>
+      <c r="D371" s="5" t="s">
+        <v>2948</v>
       </c>
       <c r="G371" t="s">
         <v>4838</v>
@@ -22203,7 +22299,7 @@
         <v>275</v>
       </c>
       <c r="D372" s="1" t="s">
-        <v>1</v>
+        <v>1589</v>
       </c>
       <c r="G372" t="s">
         <v>4783</v>
@@ -22220,7 +22316,7 @@
         <v>0</v>
       </c>
       <c r="D373" s="1" t="s">
-        <v>1</v>
+        <v>2965</v>
       </c>
       <c r="G373" t="s">
         <v>4770</v>
@@ -22237,7 +22333,7 @@
         <v>0</v>
       </c>
       <c r="D374" s="1" t="s">
-        <v>1</v>
+        <v>3083</v>
       </c>
       <c r="G374" t="s">
         <v>4800</v>
@@ -22254,7 +22350,7 @@
         <v>0</v>
       </c>
       <c r="D375" s="1" t="s">
-        <v>1</v>
+        <v>5020</v>
       </c>
       <c r="G375" t="s">
         <v>4756</v>
@@ -22271,7 +22367,7 @@
         <v>0</v>
       </c>
       <c r="D376" s="1" t="s">
-        <v>1</v>
+        <v>5019</v>
       </c>
       <c r="G376" t="s">
         <v>4756</v>
@@ -22288,7 +22384,7 @@
         <v>0</v>
       </c>
       <c r="D377" s="1" t="s">
-        <v>1</v>
+        <v>3086</v>
       </c>
       <c r="G377" t="s">
         <v>4756</v>
@@ -22305,7 +22401,7 @@
         <v>0</v>
       </c>
       <c r="D378" s="1" t="s">
-        <v>1</v>
+        <v>3058</v>
       </c>
       <c r="G378" t="s">
         <v>4838</v>
@@ -22321,7 +22417,7 @@
       <c r="C379" t="s">
         <v>0</v>
       </c>
-      <c r="D379" s="1" t="s">
+      <c r="D379" s="5" t="s">
         <v>1</v>
       </c>
     </row>
@@ -22336,7 +22432,7 @@
         <v>275</v>
       </c>
       <c r="D380" s="1" t="s">
-        <v>1</v>
+        <v>5018</v>
       </c>
       <c r="G380" t="s">
         <v>4783</v>
@@ -22353,7 +22449,7 @@
         <v>39</v>
       </c>
       <c r="D381" s="1" t="s">
-        <v>1</v>
+        <v>3086</v>
       </c>
       <c r="G381" t="s">
         <v>4782</v>
@@ -22370,7 +22466,7 @@
         <v>39</v>
       </c>
       <c r="D382" s="1" t="s">
-        <v>1</v>
+        <v>1585</v>
       </c>
       <c r="G382" t="s">
         <v>4782</v>
@@ -22387,7 +22483,7 @@
         <v>24</v>
       </c>
       <c r="D383" s="1" t="s">
-        <v>1</v>
+        <v>5017</v>
       </c>
       <c r="G383" t="s">
         <v>4824</v>
@@ -22404,7 +22500,7 @@
         <v>24</v>
       </c>
       <c r="D384" s="1" t="s">
-        <v>1</v>
+        <v>5017</v>
       </c>
       <c r="G384" t="s">
         <v>4824</v>
@@ -22421,7 +22517,7 @@
         <v>0</v>
       </c>
       <c r="D385" s="1" t="s">
-        <v>1</v>
+        <v>5016</v>
       </c>
       <c r="G385" t="s">
         <v>4838</v>
@@ -22438,7 +22534,7 @@
         <v>0</v>
       </c>
       <c r="D386" s="1" t="s">
-        <v>1</v>
+        <v>3086</v>
       </c>
       <c r="G386" t="s">
         <v>4838</v>
@@ -22455,7 +22551,7 @@
         <v>39</v>
       </c>
       <c r="D387" s="1" t="s">
-        <v>1</v>
+        <v>5015</v>
       </c>
       <c r="G387" t="s">
         <v>4782</v>
@@ -22472,7 +22568,7 @@
         <v>0</v>
       </c>
       <c r="D388" s="1" t="s">
-        <v>1</v>
+        <v>3078</v>
       </c>
       <c r="G388" t="s">
         <v>4822</v>
@@ -22489,7 +22585,7 @@
         <v>0</v>
       </c>
       <c r="D389" s="1" t="s">
-        <v>1</v>
+        <v>3083</v>
       </c>
       <c r="G389" t="s">
         <v>4756</v>
@@ -22505,7 +22601,7 @@
       <c r="C390" t="s">
         <v>24</v>
       </c>
-      <c r="D390" s="1" t="s">
+      <c r="D390" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G390" t="s">
@@ -22522,7 +22618,7 @@
       <c r="C391" t="s">
         <v>24</v>
       </c>
-      <c r="D391" s="1" t="s">
+      <c r="D391" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G391" t="s">
@@ -22539,7 +22635,7 @@
       <c r="C392" t="s">
         <v>0</v>
       </c>
-      <c r="D392" s="1" t="s">
+      <c r="D392" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G392" t="s">
@@ -22557,7 +22653,7 @@
         <v>24</v>
       </c>
       <c r="D393" s="1" t="s">
-        <v>1</v>
+        <v>5014</v>
       </c>
       <c r="G393" t="s">
         <v>4824</v>
@@ -22573,8 +22669,8 @@
       <c r="C394" t="s">
         <v>39</v>
       </c>
-      <c r="D394" s="1" t="s">
-        <v>1</v>
+      <c r="D394" s="6" t="s">
+        <v>1613</v>
       </c>
       <c r="G394" t="s">
         <v>4782</v>
@@ -22591,7 +22687,7 @@
         <v>0</v>
       </c>
       <c r="D395" s="1" t="s">
-        <v>1</v>
+        <v>4575</v>
       </c>
       <c r="G395" t="s">
         <v>4837</v>
@@ -22608,7 +22704,7 @@
         <v>39</v>
       </c>
       <c r="D396" s="1" t="s">
-        <v>1</v>
+        <v>4575</v>
       </c>
       <c r="G396" t="s">
         <v>4837</v>
@@ -22624,7 +22720,7 @@
       <c r="C397" t="s">
         <v>0</v>
       </c>
-      <c r="D397" s="1" t="s">
+      <c r="D397" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G397" t="s">
@@ -22641,8 +22737,8 @@
       <c r="C398" t="s">
         <v>0</v>
       </c>
-      <c r="D398" s="1" t="s">
-        <v>1</v>
+      <c r="D398" s="6" t="s">
+        <v>5013</v>
       </c>
       <c r="G398" t="s">
         <v>4838</v>
@@ -22658,7 +22754,7 @@
       <c r="C399" t="s">
         <v>0</v>
       </c>
-      <c r="D399" s="1" t="s">
+      <c r="D399" s="7" t="s">
         <v>1</v>
       </c>
       <c r="G399" t="s">
@@ -22676,7 +22772,7 @@
         <v>39</v>
       </c>
       <c r="D400" s="1" t="s">
-        <v>1</v>
+        <v>5012</v>
       </c>
       <c r="G400" t="s">
         <v>4782</v>
@@ -22693,7 +22789,7 @@
         <v>0</v>
       </c>
       <c r="D401" s="1" t="s">
-        <v>1</v>
+        <v>5011</v>
       </c>
       <c r="G401" t="s">
         <v>4838</v>
@@ -22710,7 +22806,7 @@
         <v>0</v>
       </c>
       <c r="D402" s="1" t="s">
-        <v>1</v>
+        <v>5010</v>
       </c>
       <c r="G402" t="s">
         <v>4838</v>
@@ -22727,7 +22823,7 @@
         <v>0</v>
       </c>
       <c r="D403" s="1" t="s">
-        <v>1</v>
+        <v>5009</v>
       </c>
       <c r="G403" t="s">
         <v>4838</v>
@@ -22744,7 +22840,7 @@
         <v>39</v>
       </c>
       <c r="D404" s="1" t="s">
-        <v>1</v>
+        <v>5008</v>
       </c>
       <c r="G404" t="s">
         <v>4782</v>
@@ -22761,7 +22857,7 @@
         <v>39</v>
       </c>
       <c r="D405" s="1" t="s">
-        <v>1</v>
+        <v>5007</v>
       </c>
       <c r="G405" t="s">
         <v>4782</v>
@@ -22778,7 +22874,7 @@
         <v>0</v>
       </c>
       <c r="D406" s="1" t="s">
-        <v>1</v>
+        <v>5006</v>
       </c>
       <c r="G406" t="s">
         <v>4838</v>
@@ -22795,7 +22891,7 @@
         <v>0</v>
       </c>
       <c r="D407" s="1" t="s">
-        <v>1</v>
+        <v>5005</v>
       </c>
       <c r="G407" t="s">
         <v>4838</v>
@@ -22812,7 +22908,7 @@
         <v>0</v>
       </c>
       <c r="D408" s="1" t="s">
-        <v>1</v>
+        <v>5004</v>
       </c>
       <c r="G408" t="s">
         <v>4838</v>
@@ -23200,7 +23296,7 @@
         <v>39</v>
       </c>
       <c r="D431" s="1" t="s">
-        <v>1</v>
+        <v>3301</v>
       </c>
       <c r="G431" t="s">
         <v>4782</v>
@@ -23931,7 +24027,7 @@
         <v>0</v>
       </c>
       <c r="D474" s="1" t="s">
-        <v>1</v>
+        <v>1613</v>
       </c>
       <c r="G474" t="s">
         <v>4756</v>
@@ -23948,7 +24044,7 @@
         <v>0</v>
       </c>
       <c r="D475" s="1" t="s">
-        <v>1</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="476" spans="1:7">
@@ -23962,7 +24058,7 @@
         <v>0</v>
       </c>
       <c r="D476" s="1" t="s">
-        <v>1</v>
+        <v>1613</v>
       </c>
       <c r="G476" t="s">
         <v>4756</v>
@@ -23979,7 +24075,7 @@
         <v>0</v>
       </c>
       <c r="D477" s="1" t="s">
-        <v>1</v>
+        <v>1613</v>
       </c>
       <c r="G477" t="s">
         <v>4838</v>
@@ -23996,7 +24092,7 @@
         <v>0</v>
       </c>
       <c r="D478" s="1" t="s">
-        <v>1</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="479" spans="1:7">
@@ -25019,7 +25115,7 @@
         <v>2</v>
       </c>
       <c r="D538" s="1" t="s">
-        <v>1</v>
+        <v>3980</v>
       </c>
       <c r="G538" t="s">
         <v>4768</v>
@@ -26019,7 +26115,7 @@
         <v>39</v>
       </c>
       <c r="D597" s="1" t="s">
-        <v>1</v>
+        <v>4191</v>
       </c>
       <c r="G597" t="s">
         <v>4782</v>
@@ -26049,9 +26145,6 @@
       <c r="C599" t="s">
         <v>39</v>
       </c>
-      <c r="D599" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="G599" t="s">
         <v>4782</v>
       </c>
@@ -27197,7 +27290,7 @@
         <v>0</v>
       </c>
       <c r="D667" s="1" t="s">
-        <v>1</v>
+        <v>4379</v>
       </c>
       <c r="G667" t="s">
         <v>4756</v>
@@ -27214,7 +27307,7 @@
         <v>0</v>
       </c>
       <c r="D668" s="1" t="s">
-        <v>1</v>
+        <v>4379</v>
       </c>
       <c r="G668" t="s">
         <v>4787</v>
@@ -27231,7 +27324,7 @@
         <v>2</v>
       </c>
       <c r="D669" s="1" t="s">
-        <v>1</v>
+        <v>4383</v>
       </c>
       <c r="G669" t="s">
         <v>4768</v>
@@ -27248,7 +27341,7 @@
         <v>2</v>
       </c>
       <c r="D670" s="1" t="s">
-        <v>1</v>
+        <v>4383</v>
       </c>
       <c r="G670" t="s">
         <v>4768</v>
@@ -27264,7 +27357,7 @@
       <c r="C671" t="s">
         <v>0</v>
       </c>
-      <c r="D671" s="1" t="s">
+      <c r="D671" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G671" t="s">
@@ -27281,7 +27374,7 @@
       <c r="C672" t="s">
         <v>0</v>
       </c>
-      <c r="D672" s="1" t="s">
+      <c r="D672" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G672" t="s">
@@ -27299,7 +27392,7 @@
         <v>0</v>
       </c>
       <c r="D673" s="1" t="s">
-        <v>1</v>
+        <v>4395</v>
       </c>
       <c r="G673" t="s">
         <v>4787</v>
@@ -27316,7 +27409,7 @@
         <v>0</v>
       </c>
       <c r="D674" s="1" t="s">
-        <v>1</v>
+        <v>4395</v>
       </c>
     </row>
     <row r="675" spans="1:7">
@@ -27330,7 +27423,7 @@
         <v>0</v>
       </c>
       <c r="D675" s="1" t="s">
-        <v>1</v>
+        <v>4399</v>
       </c>
       <c r="G675" t="s">
         <v>4756</v>
@@ -27347,7 +27440,7 @@
         <v>0</v>
       </c>
       <c r="D676" s="1" t="s">
-        <v>1</v>
+        <v>4399</v>
       </c>
       <c r="G676" t="s">
         <v>4838</v>
@@ -27363,7 +27456,7 @@
       <c r="C677" t="s">
         <v>0</v>
       </c>
-      <c r="D677" s="1" t="s">
+      <c r="D677" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G677" t="s">
@@ -27380,7 +27473,7 @@
       <c r="C678" t="s">
         <v>0</v>
       </c>
-      <c r="D678" s="1" t="s">
+      <c r="D678" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G678" t="s">
@@ -27398,7 +27491,7 @@
         <v>0</v>
       </c>
       <c r="D679" s="1" t="s">
-        <v>1</v>
+        <v>5003</v>
       </c>
       <c r="G679" t="s">
         <v>4756</v>
@@ -27415,7 +27508,7 @@
         <v>0</v>
       </c>
       <c r="D680" s="1" t="s">
-        <v>1</v>
+        <v>5002</v>
       </c>
       <c r="G680" t="s">
         <v>4787</v>
@@ -27432,7 +27525,7 @@
         <v>0</v>
       </c>
       <c r="D681" s="1" t="s">
-        <v>1</v>
+        <v>5001</v>
       </c>
       <c r="G681" t="s">
         <v>4756</v>
@@ -27449,7 +27542,7 @@
         <v>39</v>
       </c>
       <c r="D682" s="1" t="s">
-        <v>1</v>
+        <v>5000</v>
       </c>
       <c r="G682" t="s">
         <v>4782</v>
@@ -27465,8 +27558,8 @@
       <c r="C683" t="s">
         <v>0</v>
       </c>
-      <c r="D683" s="1" t="s">
-        <v>1</v>
+      <c r="D683" s="5" t="s">
+        <v>4432</v>
       </c>
       <c r="G683" t="s">
         <v>4838</v>
@@ -27483,7 +27576,7 @@
         <v>2</v>
       </c>
       <c r="D684" s="1" t="s">
-        <v>1</v>
+        <v>4437</v>
       </c>
       <c r="G684" t="s">
         <v>4729</v>
@@ -27500,7 +27593,7 @@
         <v>2</v>
       </c>
       <c r="D685" s="1" t="s">
-        <v>1</v>
+        <v>4443</v>
       </c>
     </row>
     <row r="686" spans="1:7">
@@ -27514,7 +27607,7 @@
         <v>0</v>
       </c>
       <c r="D686" s="1" t="s">
-        <v>1</v>
+        <v>4443</v>
       </c>
     </row>
     <row r="687" spans="1:7">
@@ -27527,7 +27620,7 @@
       <c r="C687" t="s">
         <v>2</v>
       </c>
-      <c r="D687" s="1" t="s">
+      <c r="D687" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G687" t="s">
@@ -27545,7 +27638,7 @@
         <v>2</v>
       </c>
       <c r="D688" s="1" t="s">
-        <v>1</v>
+        <v>3201</v>
       </c>
       <c r="G688" t="s">
         <v>4768</v>
@@ -27562,7 +27655,7 @@
         <v>2</v>
       </c>
       <c r="D689" s="1" t="s">
-        <v>1</v>
+        <v>3267</v>
       </c>
     </row>
     <row r="690" spans="1:6">
@@ -27576,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="D690" s="1" t="s">
-        <v>1</v>
+        <v>205</v>
       </c>
     </row>
     <row r="691" spans="1:6">

--- a/lemmatizer/lemma_list.xlsx
+++ b/lemmatizer/lemma_list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25915"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="260" yWindow="1800" windowWidth="21540" windowHeight="12320"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21540" windowHeight="12320"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19645" uniqueCount="5031">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19643" uniqueCount="5027">
   <si>
     <t>V</t>
   </si>
@@ -14978,9 +14978,6 @@
     <t>soak</t>
   </si>
   <si>
-    <t>ϫⲱϩⲙ̄</t>
-  </si>
-  <si>
     <t>ϫⲱⲱⲕⲉ</t>
   </si>
   <si>
@@ -14993,9 +14990,6 @@
     <t>be happy/examine</t>
   </si>
   <si>
-    <t>ϫⲓ/ϫⲟ</t>
-  </si>
-  <si>
     <t>ϫⲛⲟⲩ/ϫⲛⲁ</t>
   </si>
   <si>
@@ -15014,99 +15008,21 @@
     <t>ϭⲱⲱⲗⲉ</t>
   </si>
   <si>
-    <t>ϭⲱⲗⲡ̄</t>
-  </si>
-  <si>
-    <t>ϭⲱϫⲃ̄</t>
-  </si>
-  <si>
-    <t>ϭⲱⲛⲧ̄</t>
-  </si>
-  <si>
-    <t>ⲧⲥ̄ⲧⲟ</t>
-  </si>
-  <si>
-    <t>ⲧⲥ̄ⲧⲉ</t>
-  </si>
-  <si>
-    <t>ⲧⲥ̄ⲓⲟ</t>
-  </si>
-  <si>
-    <t>ⲧⲥ̄ⲓⲉ</t>
-  </si>
-  <si>
-    <t>ⲱⲙⲥ̄</t>
-  </si>
-  <si>
-    <t>ⲱⲙⲕ̄</t>
-  </si>
-  <si>
     <t>ⲱⲗ</t>
   </si>
   <si>
-    <t>ⲱⲕⲙ̄</t>
-  </si>
-  <si>
     <t>ⲱϥⲉ</t>
   </si>
   <si>
-    <t>ⲱⲃϣ̄</t>
-  </si>
-  <si>
-    <t>ⲱϭⲧ̄</t>
-  </si>
-  <si>
-    <t>ⲱϩⲥ̄</t>
-  </si>
-  <si>
-    <t>ⲱϥⲧ̄</t>
-  </si>
-  <si>
-    <t>ⲱϣⲙ̄</t>
-  </si>
-  <si>
-    <t>ⲛ̄ⲧⲛ̄</t>
-  </si>
-  <si>
-    <t>ⲛⲟⲩϭⲥ̄</t>
-  </si>
-  <si>
-    <t>ⲛⲟⲩϣⲡ̄</t>
-  </si>
-  <si>
-    <t>ⲛⲁϩⲣⲏⲛ̄</t>
-  </si>
-  <si>
     <t>ⲛⲉⲥⲉ</t>
   </si>
   <si>
-    <t>ⲛⲟⲩϩⲙ̄</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ⲛⲟⲩϩⲙ̄ </t>
-  </si>
-  <si>
-    <t>ⲛⲁϩⲣⲛ̄</t>
-  </si>
-  <si>
     <t xml:space="preserve">ⲛⲟⲩϩⲙ </t>
   </si>
   <si>
-    <t>ⲛ̄ϣⲟⲧ</t>
-  </si>
-  <si>
-    <t>ϩⲛ̄</t>
-  </si>
-  <si>
     <t>ⲁⲗⲉ? Ⲗⲟ?</t>
   </si>
   <si>
-    <t>ⲁϫⲛ̄</t>
-  </si>
-  <si>
-    <t>ⲕⲱⲣϣ̄</t>
-  </si>
-  <si>
     <t>ⲁⲥⲁⲓ</t>
   </si>
   <si>
@@ -15114,6 +15030,78 @@
   </si>
   <si>
     <t>ⲃⲱⲧⲉ</t>
+  </si>
+  <si>
+    <t>ⲛⲁϩⲣⲏⲛ</t>
+  </si>
+  <si>
+    <t>ⲱϣⲙ</t>
+  </si>
+  <si>
+    <t>ⲱϥⲧ</t>
+  </si>
+  <si>
+    <t>ⲱϩⲥ</t>
+  </si>
+  <si>
+    <t>ⲱⲙⲕ</t>
+  </si>
+  <si>
+    <t>ⲥⲟⲩⲟⲗⲟⲩⲗ</t>
+  </si>
+  <si>
+    <t>ⲟⲩⲟⲡ</t>
+  </si>
+  <si>
+    <t>ⲟⲩⲱϫⲉ</t>
+  </si>
+  <si>
+    <t>ⲟⲩⲱⲱⲗⲉ</t>
+  </si>
+  <si>
+    <t>ⲟⲩⲱⲧⲃ</t>
+  </si>
+  <si>
+    <t>ⲡⲓⲥⲉ</t>
+  </si>
+  <si>
+    <t>ⲁⲛⲁⲓ</t>
+  </si>
+  <si>
+    <t>ⲣⲱϣⲧ</t>
+  </si>
+  <si>
+    <t>ⲥⲱⲧ</t>
+  </si>
+  <si>
+    <t>ⲥⲟⲡⲥⲡ</t>
+  </si>
+  <si>
+    <t>ⲥⲱϭ</t>
+  </si>
+  <si>
+    <t>ⲥⲟⲩⲣ</t>
+  </si>
+  <si>
+    <t>ⲥⲣⲟⲙⲣⲙ</t>
+  </si>
+  <si>
+    <t>ⲧⲱϩⲥ</t>
+  </si>
+  <si>
+    <t>ⲧⲁϩⲧϩ</t>
+  </si>
+  <si>
+    <t>ⲧⲙⲁⲉⲓⲟ</t>
+  </si>
+  <si>
+    <t>ⲧⲱⲱϭⲉ</t>
+  </si>
+  <si>
+    <t>ⲧⲱⲣϩ</t>
+  </si>
+  <si>
+    <t>ⲙⲟⲩϫϭ</t>
   </si>
 </sst>
 </file>
@@ -15636,8 +15624,8 @@
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:H5245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A578" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D545" sqref="D545"/>
+    <sheetView tabSelected="1" topLeftCell="A230" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D230" sqref="D230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -18307,7 +18295,7 @@
         <v>0</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>4985</v>
+        <v>742</v>
       </c>
       <c r="G136" t="s">
         <v>4837</v>
@@ -18324,7 +18312,7 @@
         <v>39</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>4985</v>
+        <v>742</v>
       </c>
       <c r="G137" t="s">
         <v>4837</v>
@@ -18374,7 +18362,7 @@
       <c r="C140" t="s">
         <v>0</v>
       </c>
-      <c r="D140" s="5" t="s">
+      <c r="D140" s="6" t="s">
         <v>693</v>
       </c>
       <c r="G140" t="s">
@@ -18392,10 +18380,10 @@
         <v>0</v>
       </c>
       <c r="D141" s="1" t="s">
+        <v>4985</v>
+      </c>
+      <c r="E141" s="1" t="s">
         <v>4986</v>
-      </c>
-      <c r="E141" s="1" t="s">
-        <v>4987</v>
       </c>
       <c r="G141" t="s">
         <v>4756</v>
@@ -18428,8 +18416,8 @@
       <c r="C143" t="s">
         <v>0</v>
       </c>
-      <c r="D143" s="1" t="s">
-        <v>4990</v>
+      <c r="D143" s="5" t="s">
+        <v>660</v>
       </c>
       <c r="G143" t="s">
         <v>4756</v>
@@ -18480,10 +18468,10 @@
         <v>39</v>
       </c>
       <c r="D146" s="1" t="s">
+        <v>4987</v>
+      </c>
+      <c r="E146" s="1" t="s">
         <v>4988</v>
-      </c>
-      <c r="E146" s="1" t="s">
-        <v>4989</v>
       </c>
       <c r="G146" t="s">
         <v>4782</v>
@@ -18499,7 +18487,7 @@
       <c r="C147" t="s">
         <v>39</v>
       </c>
-      <c r="D147" s="1" t="s">
+      <c r="D147" s="5" t="s">
         <v>660</v>
       </c>
       <c r="G147" t="s">
@@ -18568,7 +18556,7 @@
         <v>0</v>
       </c>
       <c r="D151" s="5" t="s">
-        <v>1</v>
+        <v>660</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -18582,10 +18570,10 @@
         <v>0</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>4991</v>
+        <v>4989</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>4992</v>
+        <v>4990</v>
       </c>
       <c r="G152" t="s">
         <v>4756</v>
@@ -18687,7 +18675,7 @@
         <v>0</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>4993</v>
+        <v>4991</v>
       </c>
       <c r="G158" t="s">
         <v>4838</v>
@@ -18772,7 +18760,7 @@
         <v>0</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>4994</v>
+        <v>4992</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -18908,7 +18896,7 @@
         <v>739</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>4995</v>
+        <v>4993</v>
       </c>
       <c r="G171" t="s">
         <v>4787</v>
@@ -19044,7 +19032,7 @@
         <v>0</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>4996</v>
+        <v>4994</v>
       </c>
       <c r="G179" t="s">
         <v>4756</v>
@@ -19061,7 +19049,7 @@
         <v>0</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>4997</v>
+        <v>857</v>
       </c>
       <c r="G180" t="s">
         <v>4756</v>
@@ -19194,7 +19182,7 @@
         <v>0</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>4997</v>
+        <v>857</v>
       </c>
       <c r="G188" t="s">
         <v>4756</v>
@@ -19244,7 +19232,7 @@
       <c r="C191" t="s">
         <v>0</v>
       </c>
-      <c r="D191" s="1" t="s">
+      <c r="D191" s="5" t="s">
         <v>791</v>
       </c>
       <c r="G191" t="s">
@@ -19261,7 +19249,7 @@
       <c r="C192" t="s">
         <v>0</v>
       </c>
-      <c r="D192" s="1" t="s">
+      <c r="D192" s="5" t="s">
         <v>791</v>
       </c>
       <c r="G192" t="s">
@@ -19313,7 +19301,7 @@
         <v>39</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>4998</v>
+        <v>855</v>
       </c>
       <c r="G195" t="s">
         <v>4782</v>
@@ -19330,7 +19318,7 @@
         <v>39</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>4998</v>
+        <v>855</v>
       </c>
       <c r="G196" t="s">
         <v>4782</v>
@@ -19347,7 +19335,7 @@
         <v>0</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>4997</v>
+        <v>857</v>
       </c>
       <c r="G197" t="s">
         <v>4837</v>
@@ -19364,7 +19352,7 @@
         <v>39</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>4997</v>
+        <v>857</v>
       </c>
       <c r="G198" t="s">
         <v>4837</v>
@@ -19381,7 +19369,7 @@
         <v>39</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>4999</v>
+        <v>858</v>
       </c>
       <c r="G199" t="s">
         <v>4782</v>
@@ -19398,7 +19386,7 @@
         <v>0</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>4996</v>
+        <v>4994</v>
       </c>
       <c r="G200" t="s">
         <v>4837</v>
@@ -19415,7 +19403,7 @@
         <v>39</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>4996</v>
+        <v>4994</v>
       </c>
       <c r="G201" t="s">
         <v>4837</v>
@@ -19449,7 +19437,7 @@
         <v>0</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>5027</v>
+        <v>2344</v>
       </c>
       <c r="G203" t="s">
         <v>4838</v>
@@ -19482,7 +19470,7 @@
       <c r="C205" t="s">
         <v>0</v>
       </c>
-      <c r="D205" s="1" t="s">
+      <c r="D205" s="5" t="s">
         <v>869</v>
       </c>
       <c r="G205" t="s">
@@ -19499,7 +19487,7 @@
       <c r="C206" t="s">
         <v>0</v>
       </c>
-      <c r="D206" s="1" t="s">
+      <c r="D206" s="5" t="s">
         <v>869</v>
       </c>
       <c r="G206" t="s">
@@ -19516,7 +19504,7 @@
       <c r="C207" t="s">
         <v>0</v>
       </c>
-      <c r="D207" s="1" t="s">
+      <c r="D207" s="5" t="s">
         <v>869</v>
       </c>
       <c r="G207" t="s">
@@ -19533,7 +19521,7 @@
       <c r="C208" t="s">
         <v>0</v>
       </c>
-      <c r="D208" s="1" t="s">
+      <c r="D208" s="5" t="s">
         <v>869</v>
       </c>
       <c r="G208" t="s">
@@ -19636,7 +19624,7 @@
         <v>24</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>5026</v>
+        <v>934</v>
       </c>
       <c r="G214" t="s">
         <v>4824</v>
@@ -19704,7 +19692,7 @@
         <v>932</v>
       </c>
       <c r="D218" s="5" t="s">
-        <v>5025</v>
+        <v>4999</v>
       </c>
       <c r="G218" t="s">
         <v>4847</v>
@@ -19891,7 +19879,7 @@
         <v>39</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>5028</v>
+        <v>5000</v>
       </c>
       <c r="G229" t="s">
         <v>4782</v>
@@ -19908,7 +19896,7 @@
         <v>0</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>5029</v>
+        <v>5001</v>
       </c>
       <c r="G230" t="s">
         <v>4838</v>
@@ -19942,7 +19930,7 @@
         <v>0</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>5030</v>
+        <v>5002</v>
       </c>
       <c r="G232" t="s">
         <v>4756</v>
@@ -19993,7 +19981,7 @@
         <v>39</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>5030</v>
+        <v>5002</v>
       </c>
       <c r="G235" t="s">
         <v>4782</v>
@@ -20090,7 +20078,7 @@
         <v>0</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>5030</v>
+        <v>5002</v>
       </c>
       <c r="G241" t="s">
         <v>4838</v>
@@ -21673,7 +21661,7 @@
         <v>39</v>
       </c>
       <c r="D335" s="1" t="s">
-        <v>1</v>
+        <v>2853</v>
       </c>
       <c r="G335" t="s">
         <v>4782</v>
@@ -21690,7 +21678,7 @@
         <v>0</v>
       </c>
       <c r="D336" s="1" t="s">
-        <v>1</v>
+        <v>2819</v>
       </c>
       <c r="G336" t="s">
         <v>4838</v>
@@ -21707,7 +21695,7 @@
         <v>0</v>
       </c>
       <c r="D337" s="1" t="s">
-        <v>1</v>
+        <v>2819</v>
       </c>
       <c r="G337" t="s">
         <v>4838</v>
@@ -21724,7 +21712,7 @@
         <v>24</v>
       </c>
       <c r="D338" s="1" t="s">
-        <v>1</v>
+        <v>2915</v>
       </c>
       <c r="G338" t="s">
         <v>4824</v>
@@ -21740,7 +21728,7 @@
       <c r="C339" t="s">
         <v>24</v>
       </c>
-      <c r="D339" s="1" t="s">
+      <c r="D339" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G339" t="s">
@@ -21758,7 +21746,7 @@
         <v>24</v>
       </c>
       <c r="D340" s="1" t="s">
-        <v>1</v>
+        <v>2653</v>
       </c>
       <c r="G340" t="s">
         <v>4824</v>
@@ -21775,7 +21763,7 @@
         <v>0</v>
       </c>
       <c r="D341" s="1" t="s">
-        <v>1</v>
+        <v>5026</v>
       </c>
       <c r="G341" t="s">
         <v>4837</v>
@@ -21792,7 +21780,7 @@
         <v>39</v>
       </c>
       <c r="D342" s="1" t="s">
-        <v>1</v>
+        <v>5026</v>
       </c>
       <c r="G342" t="s">
         <v>4837</v>
@@ -21809,7 +21797,7 @@
         <v>39</v>
       </c>
       <c r="D343" s="1" t="s">
-        <v>1</v>
+        <v>5026</v>
       </c>
       <c r="G343" t="s">
         <v>4782</v>
@@ -21826,7 +21814,7 @@
         <v>39</v>
       </c>
       <c r="D344" s="1" t="s">
-        <v>1</v>
+        <v>2846</v>
       </c>
       <c r="G344" t="s">
         <v>4782</v>
@@ -21842,7 +21830,7 @@
       <c r="C345" t="s">
         <v>39</v>
       </c>
-      <c r="D345" s="1" t="s">
+      <c r="D345" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G345" t="s">
@@ -21859,7 +21847,7 @@
       <c r="C346" t="s">
         <v>39</v>
       </c>
-      <c r="D346" s="1" t="s">
+      <c r="D346" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G346" t="s">
@@ -21877,7 +21865,7 @@
         <v>0</v>
       </c>
       <c r="D347" s="1" t="s">
-        <v>1</v>
+        <v>2847</v>
       </c>
       <c r="G347" t="s">
         <v>4837</v>
@@ -21894,7 +21882,7 @@
         <v>39</v>
       </c>
       <c r="D348" s="1" t="s">
-        <v>1</v>
+        <v>2847</v>
       </c>
       <c r="G348" t="s">
         <v>4837</v>
@@ -21911,7 +21899,7 @@
         <v>0</v>
       </c>
       <c r="D349" s="1" t="s">
-        <v>1</v>
+        <v>2852</v>
       </c>
       <c r="G349" t="s">
         <v>4837</v>
@@ -21928,7 +21916,7 @@
         <v>39</v>
       </c>
       <c r="D350" s="1" t="s">
-        <v>1</v>
+        <v>2852</v>
       </c>
       <c r="G350" t="s">
         <v>4837</v>
@@ -21945,7 +21933,7 @@
         <v>0</v>
       </c>
       <c r="D351" s="1" t="s">
-        <v>1</v>
+        <v>2853</v>
       </c>
       <c r="G351" t="s">
         <v>4838</v>
@@ -21962,7 +21950,7 @@
         <v>39</v>
       </c>
       <c r="D352" s="1" t="s">
-        <v>1</v>
+        <v>2908</v>
       </c>
       <c r="G352" t="s">
         <v>4782</v>
@@ -21979,7 +21967,7 @@
         <v>39</v>
       </c>
       <c r="D353" s="1" t="s">
-        <v>1</v>
+        <v>2908</v>
       </c>
       <c r="G353" t="s">
         <v>4782</v>
@@ -21996,7 +21984,7 @@
         <v>0</v>
       </c>
       <c r="D354" s="1" t="s">
-        <v>1</v>
+        <v>2842</v>
       </c>
       <c r="G354" t="s">
         <v>4842</v>
@@ -22012,7 +22000,7 @@
       <c r="C355" t="s">
         <v>2</v>
       </c>
-      <c r="D355" s="1" t="s">
+      <c r="D355" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G355" t="s">
@@ -22029,7 +22017,7 @@
       <c r="C356" t="s">
         <v>2</v>
       </c>
-      <c r="D356" s="1" t="s">
+      <c r="D356" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G356" t="s">
@@ -22046,7 +22034,7 @@
       <c r="C357" t="s">
         <v>24</v>
       </c>
-      <c r="D357" s="1" t="s">
+      <c r="D357" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G357" t="s">
@@ -22081,7 +22069,7 @@
         <v>24</v>
       </c>
       <c r="D359" s="1" t="s">
-        <v>5024</v>
+        <v>451</v>
       </c>
       <c r="G359" t="s">
         <v>4824</v>
@@ -22098,7 +22086,7 @@
         <v>24</v>
       </c>
       <c r="D360" s="1" t="s">
-        <v>5024</v>
+        <v>451</v>
       </c>
       <c r="G360" t="s">
         <v>4824</v>
@@ -22132,7 +22120,7 @@
         <v>24</v>
       </c>
       <c r="D362" s="1" t="s">
-        <v>5024</v>
+        <v>451</v>
       </c>
     </row>
     <row r="363" spans="1:7">
@@ -22197,7 +22185,7 @@
         <v>39</v>
       </c>
       <c r="D366" s="1" t="s">
-        <v>5023</v>
+        <v>2917</v>
       </c>
       <c r="G366" t="s">
         <v>4782</v>
@@ -22214,7 +22202,7 @@
         <v>0</v>
       </c>
       <c r="D367" s="1" t="s">
-        <v>5022</v>
+        <v>4998</v>
       </c>
       <c r="G367" t="s">
         <v>4838</v>
@@ -22265,7 +22253,7 @@
         <v>24</v>
       </c>
       <c r="D370" s="1" t="s">
-        <v>5021</v>
+        <v>2946</v>
       </c>
       <c r="G370" t="s">
         <v>4824</v>
@@ -22350,7 +22338,7 @@
         <v>0</v>
       </c>
       <c r="D375" s="1" t="s">
-        <v>5020</v>
+        <v>4998</v>
       </c>
       <c r="G375" t="s">
         <v>4756</v>
@@ -22367,7 +22355,7 @@
         <v>0</v>
       </c>
       <c r="D376" s="1" t="s">
-        <v>5019</v>
+        <v>3084</v>
       </c>
       <c r="G376" t="s">
         <v>4756</v>
@@ -22432,7 +22420,7 @@
         <v>275</v>
       </c>
       <c r="D380" s="1" t="s">
-        <v>5018</v>
+        <v>4997</v>
       </c>
       <c r="G380" t="s">
         <v>4783</v>
@@ -22483,7 +22471,7 @@
         <v>24</v>
       </c>
       <c r="D383" s="1" t="s">
-        <v>5017</v>
+        <v>5003</v>
       </c>
       <c r="G383" t="s">
         <v>4824</v>
@@ -22500,7 +22488,7 @@
         <v>24</v>
       </c>
       <c r="D384" s="1" t="s">
-        <v>5017</v>
+        <v>5003</v>
       </c>
       <c r="G384" t="s">
         <v>4824</v>
@@ -22517,7 +22505,7 @@
         <v>0</v>
       </c>
       <c r="D385" s="1" t="s">
-        <v>5016</v>
+        <v>3080</v>
       </c>
       <c r="G385" t="s">
         <v>4838</v>
@@ -22551,7 +22539,7 @@
         <v>39</v>
       </c>
       <c r="D387" s="1" t="s">
-        <v>5015</v>
+        <v>3087</v>
       </c>
       <c r="G387" t="s">
         <v>4782</v>
@@ -22653,7 +22641,7 @@
         <v>24</v>
       </c>
       <c r="D393" s="1" t="s">
-        <v>5014</v>
+        <v>3134</v>
       </c>
       <c r="G393" t="s">
         <v>4824</v>
@@ -22738,7 +22726,7 @@
         <v>0</v>
       </c>
       <c r="D398" s="6" t="s">
-        <v>5013</v>
+        <v>5004</v>
       </c>
       <c r="G398" t="s">
         <v>4838</v>
@@ -22772,7 +22760,7 @@
         <v>39</v>
       </c>
       <c r="D400" s="1" t="s">
-        <v>5012</v>
+        <v>5005</v>
       </c>
       <c r="G400" t="s">
         <v>4782</v>
@@ -22789,7 +22777,7 @@
         <v>0</v>
       </c>
       <c r="D401" s="1" t="s">
-        <v>5011</v>
+        <v>5006</v>
       </c>
       <c r="G401" t="s">
         <v>4838</v>
@@ -22806,7 +22794,7 @@
         <v>0</v>
       </c>
       <c r="D402" s="1" t="s">
-        <v>5010</v>
+        <v>4582</v>
       </c>
       <c r="G402" t="s">
         <v>4838</v>
@@ -22823,7 +22811,7 @@
         <v>0</v>
       </c>
       <c r="D403" s="1" t="s">
-        <v>5009</v>
+        <v>4583</v>
       </c>
       <c r="G403" t="s">
         <v>4838</v>
@@ -22840,7 +22828,7 @@
         <v>39</v>
       </c>
       <c r="D404" s="1" t="s">
-        <v>5008</v>
+        <v>4996</v>
       </c>
       <c r="G404" t="s">
         <v>4782</v>
@@ -22857,7 +22845,7 @@
         <v>39</v>
       </c>
       <c r="D405" s="1" t="s">
-        <v>5007</v>
+        <v>4584</v>
       </c>
       <c r="G405" t="s">
         <v>4782</v>
@@ -22874,7 +22862,7 @@
         <v>0</v>
       </c>
       <c r="D406" s="1" t="s">
-        <v>5006</v>
+        <v>4995</v>
       </c>
       <c r="G406" t="s">
         <v>4838</v>
@@ -22891,7 +22879,7 @@
         <v>0</v>
       </c>
       <c r="D407" s="1" t="s">
-        <v>5005</v>
+        <v>5007</v>
       </c>
       <c r="G407" t="s">
         <v>4838</v>
@@ -22908,7 +22896,7 @@
         <v>0</v>
       </c>
       <c r="D408" s="1" t="s">
-        <v>5004</v>
+        <v>4587</v>
       </c>
       <c r="G408" t="s">
         <v>4838</v>
@@ -23030,7 +23018,7 @@
         <v>39</v>
       </c>
       <c r="D415" s="1" t="s">
-        <v>1</v>
+        <v>4601</v>
       </c>
       <c r="G415" t="s">
         <v>4782</v>
@@ -23064,7 +23052,7 @@
         <v>0</v>
       </c>
       <c r="D417" s="1" t="s">
-        <v>1</v>
+        <v>3296</v>
       </c>
       <c r="G417" t="s">
         <v>4838</v>
@@ -23080,7 +23068,7 @@
       <c r="C418" t="s">
         <v>0</v>
       </c>
-      <c r="D418" s="1" t="s">
+      <c r="D418" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G418" t="s">
@@ -23098,7 +23086,7 @@
         <v>0</v>
       </c>
       <c r="D419" s="1" t="s">
-        <v>1</v>
+        <v>3301</v>
       </c>
       <c r="G419" t="s">
         <v>4838</v>
@@ -23146,7 +23134,7 @@
         <v>39</v>
       </c>
       <c r="D422" s="1" t="s">
-        <v>1</v>
+        <v>5009</v>
       </c>
       <c r="G422" t="s">
         <v>4782</v>
@@ -23163,7 +23151,7 @@
         <v>24</v>
       </c>
       <c r="D423" s="1" t="s">
-        <v>1</v>
+        <v>3222</v>
       </c>
       <c r="G423" t="s">
         <v>4824</v>
@@ -23180,7 +23168,7 @@
         <v>0</v>
       </c>
       <c r="D424" s="1" t="s">
-        <v>1</v>
+        <v>3296</v>
       </c>
       <c r="G424" t="s">
         <v>4756</v>
@@ -23197,7 +23185,7 @@
         <v>0</v>
       </c>
       <c r="D425" s="1" t="s">
-        <v>1</v>
+        <v>3299</v>
       </c>
       <c r="G425" t="s">
         <v>4756</v>
@@ -23214,7 +23202,7 @@
         <v>0</v>
       </c>
       <c r="D426" s="1" t="s">
-        <v>1</v>
+        <v>3301</v>
       </c>
     </row>
     <row r="427" spans="1:7">
@@ -23228,7 +23216,7 @@
         <v>0</v>
       </c>
       <c r="D427" s="1" t="s">
-        <v>1</v>
+        <v>3308</v>
       </c>
       <c r="G427" t="s">
         <v>4756</v>
@@ -23245,7 +23233,7 @@
         <v>0</v>
       </c>
       <c r="D428" s="1" t="s">
-        <v>1</v>
+        <v>3309</v>
       </c>
       <c r="G428" t="s">
         <v>4756</v>
@@ -23262,7 +23250,7 @@
         <v>0</v>
       </c>
       <c r="D429" s="1" t="s">
-        <v>1</v>
+        <v>3311</v>
       </c>
       <c r="G429" t="s">
         <v>4756</v>
@@ -23279,7 +23267,7 @@
         <v>275</v>
       </c>
       <c r="D430" s="1" t="s">
-        <v>1</v>
+        <v>3313</v>
       </c>
       <c r="G430" t="s">
         <v>4846</v>
@@ -23313,7 +23301,7 @@
         <v>39</v>
       </c>
       <c r="D432" s="1" t="s">
-        <v>1</v>
+        <v>3309</v>
       </c>
       <c r="G432" t="s">
         <v>4782</v>
@@ -23330,7 +23318,7 @@
         <v>39</v>
       </c>
       <c r="D433" s="1" t="s">
-        <v>1</v>
+        <v>3227</v>
       </c>
       <c r="G433" t="s">
         <v>4782</v>
@@ -23347,7 +23335,7 @@
         <v>0</v>
       </c>
       <c r="D434" s="1" t="s">
-        <v>1</v>
+        <v>3298</v>
       </c>
       <c r="G434" t="s">
         <v>4838</v>
@@ -23364,7 +23352,7 @@
         <v>0</v>
       </c>
       <c r="D435" s="1" t="s">
-        <v>1</v>
+        <v>3298</v>
       </c>
       <c r="G435" t="s">
         <v>4838</v>
@@ -23381,7 +23369,7 @@
         <v>39</v>
       </c>
       <c r="D436" s="1" t="s">
-        <v>1</v>
+        <v>3299</v>
       </c>
       <c r="G436" t="s">
         <v>4782</v>
@@ -23398,7 +23386,7 @@
         <v>0</v>
       </c>
       <c r="D437" s="1" t="s">
-        <v>1</v>
+        <v>3301</v>
       </c>
       <c r="G437" t="s">
         <v>4838</v>
@@ -23415,7 +23403,7 @@
         <v>39</v>
       </c>
       <c r="D438" s="1" t="s">
-        <v>1</v>
+        <v>5010</v>
       </c>
       <c r="G438" t="s">
         <v>4782</v>
@@ -23449,7 +23437,7 @@
         <v>39</v>
       </c>
       <c r="D440" s="1" t="s">
-        <v>1</v>
+        <v>3304</v>
       </c>
       <c r="G440" t="s">
         <v>4782</v>
@@ -23465,9 +23453,6 @@
       <c r="C441" t="s">
         <v>0</v>
       </c>
-      <c r="D441" s="1" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="442" spans="1:7">
       <c r="A442">
@@ -23480,7 +23465,7 @@
         <v>0</v>
       </c>
       <c r="D442" s="1" t="s">
-        <v>1</v>
+        <v>3306</v>
       </c>
       <c r="G442" t="s">
         <v>4838</v>
@@ -23497,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="D443" s="1" t="s">
-        <v>1</v>
+        <v>3308</v>
       </c>
       <c r="G443" t="s">
         <v>4838</v>
@@ -23514,7 +23499,7 @@
         <v>0</v>
       </c>
       <c r="D444" s="1" t="s">
-        <v>1</v>
+        <v>3311</v>
       </c>
       <c r="G444" t="s">
         <v>4837</v>
@@ -23531,7 +23516,7 @@
         <v>39</v>
       </c>
       <c r="D445" s="1" t="s">
-        <v>1</v>
+        <v>3311</v>
       </c>
       <c r="G445" t="s">
         <v>4837</v>
@@ -23565,7 +23550,7 @@
         <v>39</v>
       </c>
       <c r="D447" s="1" t="s">
-        <v>1</v>
+        <v>5011</v>
       </c>
       <c r="G447" t="s">
         <v>4782</v>
@@ -23582,7 +23567,7 @@
         <v>39</v>
       </c>
       <c r="D448" s="1" t="s">
-        <v>1</v>
+        <v>5012</v>
       </c>
       <c r="G448" t="s">
         <v>4782</v>
@@ -23599,7 +23584,7 @@
         <v>24</v>
       </c>
       <c r="D449" s="1" t="s">
-        <v>1</v>
+        <v>3293</v>
       </c>
       <c r="G449" t="s">
         <v>4830</v>
@@ -23616,7 +23601,7 @@
         <v>0</v>
       </c>
       <c r="D450" s="1" t="s">
-        <v>1</v>
+        <v>3633</v>
       </c>
       <c r="G450" t="s">
         <v>4838</v>
@@ -23633,7 +23618,7 @@
         <v>0</v>
       </c>
       <c r="D451" s="1" t="s">
-        <v>1</v>
+        <v>3635</v>
       </c>
       <c r="G451" t="s">
         <v>4787</v>
@@ -23650,7 +23635,7 @@
         <v>0</v>
       </c>
       <c r="D452" s="1" t="s">
-        <v>1</v>
+        <v>5013</v>
       </c>
       <c r="G452" t="s">
         <v>4838</v>
@@ -23667,7 +23652,7 @@
         <v>0</v>
       </c>
       <c r="D453" s="1" t="s">
-        <v>1</v>
+        <v>3630</v>
       </c>
       <c r="G453" t="s">
         <v>4756</v>
@@ -23684,7 +23669,7 @@
         <v>0</v>
       </c>
       <c r="D454" s="1" t="s">
-        <v>1</v>
+        <v>3631</v>
       </c>
       <c r="G454" t="s">
         <v>4756</v>
@@ -23701,7 +23686,7 @@
         <v>0</v>
       </c>
       <c r="D455" s="1" t="s">
-        <v>1</v>
+        <v>3632</v>
       </c>
       <c r="G455" t="s">
         <v>4756</v>
@@ -23718,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="D456" s="1" t="s">
-        <v>1</v>
+        <v>3635</v>
       </c>
       <c r="G456" t="s">
         <v>4756</v>
@@ -23735,7 +23720,7 @@
         <v>0</v>
       </c>
       <c r="D457" s="1" t="s">
-        <v>1</v>
+        <v>3642</v>
       </c>
       <c r="G457" t="s">
         <v>4756</v>
@@ -23752,7 +23737,7 @@
         <v>0</v>
       </c>
       <c r="D458" s="1" t="s">
-        <v>1</v>
+        <v>3650</v>
       </c>
       <c r="G458" t="s">
         <v>4756</v>
@@ -23769,7 +23754,7 @@
         <v>39</v>
       </c>
       <c r="D459" s="1" t="s">
-        <v>1</v>
+        <v>3630</v>
       </c>
       <c r="G459" t="s">
         <v>4782</v>
@@ -23786,7 +23771,7 @@
         <v>39</v>
       </c>
       <c r="D460" s="1" t="s">
-        <v>1</v>
+        <v>3633</v>
       </c>
       <c r="G460" t="s">
         <v>4782</v>
@@ -23803,7 +23788,7 @@
         <v>39</v>
       </c>
       <c r="D461" s="1" t="s">
-        <v>1</v>
+        <v>3645</v>
       </c>
       <c r="G461" t="s">
         <v>4782</v>
@@ -23819,7 +23804,7 @@
       <c r="C462" t="s">
         <v>0</v>
       </c>
-      <c r="D462" s="1" t="s">
+      <c r="D462" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G462" t="s">
@@ -23837,7 +23822,7 @@
         <v>0</v>
       </c>
       <c r="D463" s="1" t="s">
-        <v>1</v>
+        <v>3648</v>
       </c>
       <c r="G463" t="s">
         <v>4838</v>
@@ -23854,7 +23839,7 @@
         <v>39</v>
       </c>
       <c r="D464" s="1" t="s">
-        <v>1</v>
+        <v>3641</v>
       </c>
       <c r="G464" t="s">
         <v>4782</v>
@@ -23871,7 +23856,7 @@
         <v>0</v>
       </c>
       <c r="D465" s="1" t="s">
-        <v>1</v>
+        <v>3642</v>
       </c>
       <c r="G465" t="s">
         <v>4837</v>
@@ -23888,7 +23873,7 @@
         <v>39</v>
       </c>
       <c r="D466" s="1" t="s">
-        <v>1</v>
+        <v>3642</v>
       </c>
       <c r="G466" t="s">
         <v>4837</v>
@@ -23905,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="D467" s="1" t="s">
-        <v>1</v>
+        <v>3643</v>
       </c>
       <c r="G467" t="s">
         <v>4838</v>
@@ -23921,8 +23906,8 @@
       <c r="C468" t="s">
         <v>0</v>
       </c>
-      <c r="D468" s="1" t="s">
-        <v>1</v>
+      <c r="D468" s="6" t="s">
+        <v>3643</v>
       </c>
       <c r="G468" t="s">
         <v>4838</v>
@@ -23939,7 +23924,7 @@
         <v>39</v>
       </c>
       <c r="D469" s="1" t="s">
-        <v>1</v>
+        <v>5013</v>
       </c>
       <c r="G469" t="s">
         <v>4782</v>
@@ -23956,7 +23941,7 @@
         <v>0</v>
       </c>
       <c r="D470" s="1" t="s">
-        <v>1</v>
+        <v>3641</v>
       </c>
       <c r="G470" t="s">
         <v>4756</v>
@@ -23973,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="D471" s="1" t="s">
-        <v>1</v>
+        <v>3642</v>
       </c>
       <c r="G471" t="s">
         <v>4756</v>
@@ -23990,7 +23975,7 @@
         <v>39</v>
       </c>
       <c r="D472" s="1" t="s">
-        <v>1</v>
+        <v>3439</v>
       </c>
       <c r="G472" t="s">
         <v>4782</v>
@@ -24026,7 +24011,7 @@
       <c r="C474" t="s">
         <v>0</v>
       </c>
-      <c r="D474" s="1" t="s">
+      <c r="D474" s="5" t="s">
         <v>1613</v>
       </c>
       <c r="G474" t="s">
@@ -24043,7 +24028,7 @@
       <c r="C475" t="s">
         <v>0</v>
       </c>
-      <c r="D475" s="1" t="s">
+      <c r="D475" s="5" t="s">
         <v>1613</v>
       </c>
     </row>
@@ -24057,7 +24042,7 @@
       <c r="C476" t="s">
         <v>0</v>
       </c>
-      <c r="D476" s="1" t="s">
+      <c r="D476" s="5" t="s">
         <v>1613</v>
       </c>
       <c r="G476" t="s">
@@ -24074,7 +24059,7 @@
       <c r="C477" t="s">
         <v>0</v>
       </c>
-      <c r="D477" s="1" t="s">
+      <c r="D477" s="5" t="s">
         <v>1613</v>
       </c>
       <c r="G477" t="s">
@@ -24091,7 +24076,7 @@
       <c r="C478" t="s">
         <v>0</v>
       </c>
-      <c r="D478" s="1" t="s">
+      <c r="D478" s="5" t="s">
         <v>1613</v>
       </c>
     </row>
@@ -24106,7 +24091,7 @@
         <v>0</v>
       </c>
       <c r="D479" s="1" t="s">
-        <v>1</v>
+        <v>3806</v>
       </c>
       <c r="G479" t="s">
         <v>4837</v>
@@ -24123,7 +24108,7 @@
         <v>39</v>
       </c>
       <c r="D480" s="1" t="s">
-        <v>1</v>
+        <v>3806</v>
       </c>
       <c r="G480" t="s">
         <v>4837</v>
@@ -24139,7 +24124,7 @@
       <c r="C481" t="s">
         <v>0</v>
       </c>
-      <c r="D481" s="1" t="s">
+      <c r="D481" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G481" t="s">
@@ -24157,7 +24142,7 @@
         <v>0</v>
       </c>
       <c r="D482" s="1" t="s">
-        <v>1</v>
+        <v>5014</v>
       </c>
       <c r="G482" t="s">
         <v>4838</v>
@@ -24173,7 +24158,7 @@
       <c r="C483" t="s">
         <v>0</v>
       </c>
-      <c r="D483" s="1" t="s">
+      <c r="D483" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G483" t="s">
@@ -24191,7 +24176,7 @@
         <v>0</v>
       </c>
       <c r="D484" s="1" t="s">
-        <v>1</v>
+        <v>5015</v>
       </c>
       <c r="G484" t="s">
         <v>4756</v>
@@ -24207,7 +24192,7 @@
       <c r="C485" t="s">
         <v>2</v>
       </c>
-      <c r="D485" s="1" t="s">
+      <c r="D485" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G485" t="s">
@@ -24358,7 +24343,7 @@
         <v>0</v>
       </c>
       <c r="D494" s="1" t="s">
-        <v>1</v>
+        <v>3807</v>
       </c>
       <c r="G494" t="s">
         <v>4838</v>
@@ -24480,7 +24465,7 @@
         <v>39</v>
       </c>
       <c r="D501" s="1" t="s">
-        <v>1</v>
+        <v>3825</v>
       </c>
       <c r="G501" t="s">
         <v>4782</v>
@@ -24497,7 +24482,7 @@
         <v>0</v>
       </c>
       <c r="D502" s="1" t="s">
-        <v>1</v>
+        <v>3825</v>
       </c>
       <c r="G502" t="s">
         <v>4838</v>
@@ -24514,7 +24499,7 @@
         <v>39</v>
       </c>
       <c r="D503" s="1" t="s">
-        <v>1</v>
+        <v>3814</v>
       </c>
       <c r="G503" t="s">
         <v>4782</v>
@@ -24531,7 +24516,7 @@
         <v>2</v>
       </c>
       <c r="D504" s="1" t="s">
-        <v>1</v>
+        <v>3818</v>
       </c>
       <c r="G504" t="s">
         <v>4803</v>
@@ -24548,7 +24533,7 @@
         <v>39</v>
       </c>
       <c r="D505" s="1" t="s">
-        <v>1</v>
+        <v>3907</v>
       </c>
       <c r="G505" t="s">
         <v>4782</v>
@@ -24565,7 +24550,7 @@
         <v>39</v>
       </c>
       <c r="D506" s="1" t="s">
-        <v>1</v>
+        <v>4133</v>
       </c>
       <c r="G506" t="s">
         <v>4782</v>
@@ -24582,7 +24567,7 @@
         <v>2</v>
       </c>
       <c r="D507" s="1" t="s">
-        <v>1</v>
+        <v>3823</v>
       </c>
       <c r="G507" t="s">
         <v>4804</v>
@@ -24599,7 +24584,7 @@
         <v>0</v>
       </c>
       <c r="D508" s="1" t="s">
-        <v>1</v>
+        <v>3810</v>
       </c>
       <c r="G508" t="s">
         <v>4804</v>
@@ -24616,7 +24601,7 @@
         <v>39</v>
       </c>
       <c r="D509" s="1" t="s">
-        <v>1</v>
+        <v>3987</v>
       </c>
       <c r="G509" t="s">
         <v>4782</v>
@@ -24633,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="D510" s="1" t="s">
-        <v>1</v>
+        <v>3987</v>
       </c>
       <c r="G510" t="s">
         <v>4844</v>
@@ -24650,7 +24635,7 @@
         <v>0</v>
       </c>
       <c r="D511" s="1" t="s">
-        <v>1</v>
+        <v>5016</v>
       </c>
       <c r="G511" t="s">
         <v>4838</v>
@@ -24667,7 +24652,7 @@
         <v>2</v>
       </c>
       <c r="D512" s="1" t="s">
-        <v>1</v>
+        <v>3833</v>
       </c>
       <c r="G512" t="s">
         <v>4768</v>
@@ -24683,7 +24668,7 @@
       <c r="C513" t="s">
         <v>0</v>
       </c>
-      <c r="D513" s="1" t="s">
+      <c r="D513" s="5" t="s">
         <v>1</v>
       </c>
     </row>
@@ -24698,7 +24683,7 @@
         <v>2</v>
       </c>
       <c r="D514" s="1" t="s">
-        <v>1</v>
+        <v>3833</v>
       </c>
       <c r="G514" t="s">
         <v>4768</v>
@@ -24715,7 +24700,7 @@
         <v>2</v>
       </c>
       <c r="D515" s="1" t="s">
-        <v>1</v>
+        <v>3833</v>
       </c>
       <c r="G515" t="s">
         <v>4768</v>
@@ -24732,7 +24717,7 @@
         <v>0</v>
       </c>
       <c r="D516" s="1" t="s">
-        <v>1</v>
+        <v>3972</v>
       </c>
       <c r="G516" t="s">
         <v>4837</v>
@@ -24749,7 +24734,7 @@
         <v>39</v>
       </c>
       <c r="D517" s="1" t="s">
-        <v>1</v>
+        <v>3972</v>
       </c>
       <c r="G517" t="s">
         <v>4837</v>
@@ -24766,7 +24751,7 @@
         <v>0</v>
       </c>
       <c r="D518" s="1" t="s">
-        <v>1</v>
+        <v>4127</v>
       </c>
       <c r="G518" t="s">
         <v>4756</v>
@@ -24783,7 +24768,7 @@
         <v>0</v>
       </c>
       <c r="D519" s="1" t="s">
-        <v>1</v>
+        <v>3810</v>
       </c>
       <c r="G519" t="s">
         <v>4756</v>
@@ -24799,7 +24784,7 @@
       <c r="C520" t="s">
         <v>39</v>
       </c>
-      <c r="D520" s="1" t="s">
+      <c r="D520" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G520" t="s">
@@ -24817,7 +24802,7 @@
         <v>0</v>
       </c>
       <c r="D521" s="1" t="s">
-        <v>1</v>
+        <v>5017</v>
       </c>
       <c r="G521" t="s">
         <v>4756</v>
@@ -24834,7 +24819,7 @@
         <v>0</v>
       </c>
       <c r="D522" s="1" t="s">
-        <v>1</v>
+        <v>5017</v>
       </c>
       <c r="G522" t="s">
         <v>4838</v>
@@ -24851,7 +24836,7 @@
         <v>0</v>
       </c>
       <c r="D523" s="1" t="s">
-        <v>1</v>
+        <v>5017</v>
       </c>
       <c r="G523" t="s">
         <v>4838</v>
@@ -24888,7 +24873,7 @@
         <v>0</v>
       </c>
       <c r="D525" s="1" t="s">
-        <v>1</v>
+        <v>4151</v>
       </c>
       <c r="G525" t="s">
         <v>4756</v>
@@ -24945,7 +24930,7 @@
         <v>39</v>
       </c>
       <c r="D528" s="1" t="s">
-        <v>1</v>
+        <v>5018</v>
       </c>
       <c r="G528" t="s">
         <v>4782</v>
@@ -24962,7 +24947,7 @@
         <v>39</v>
       </c>
       <c r="D529" s="1" t="s">
-        <v>1</v>
+        <v>4153</v>
       </c>
       <c r="G529" t="s">
         <v>4782</v>
@@ -24979,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="D530" s="1" t="s">
-        <v>1</v>
+        <v>3938</v>
       </c>
       <c r="G530" t="s">
         <v>4838</v>
@@ -24996,7 +24981,7 @@
         <v>0</v>
       </c>
       <c r="D531" s="1" t="s">
-        <v>1</v>
+        <v>3938</v>
       </c>
       <c r="G531" t="s">
         <v>4838</v>
@@ -25013,7 +24998,7 @@
         <v>0</v>
       </c>
       <c r="D532" s="1" t="s">
-        <v>1</v>
+        <v>3938</v>
       </c>
       <c r="G532" t="s">
         <v>4756</v>
@@ -25030,7 +25015,7 @@
         <v>0</v>
       </c>
       <c r="D533" s="1" t="s">
-        <v>1</v>
+        <v>3978</v>
       </c>
       <c r="G533" t="s">
         <v>4838</v>
@@ -25047,7 +25032,7 @@
         <v>39</v>
       </c>
       <c r="D534" s="1" t="s">
-        <v>1</v>
+        <v>3957</v>
       </c>
       <c r="G534" t="s">
         <v>4782</v>
@@ -25064,7 +25049,7 @@
         <v>0</v>
       </c>
       <c r="D535" s="1" t="s">
-        <v>1</v>
+        <v>3950</v>
       </c>
       <c r="G535" t="s">
         <v>4756</v>
@@ -25081,7 +25066,7 @@
         <v>0</v>
       </c>
       <c r="D536" s="1" t="s">
-        <v>1</v>
+        <v>3950</v>
       </c>
       <c r="G536" t="s">
         <v>4838</v>
@@ -25098,7 +25083,7 @@
         <v>39</v>
       </c>
       <c r="D537" s="1" t="s">
-        <v>1</v>
+        <v>3950</v>
       </c>
       <c r="G537" t="s">
         <v>4782</v>
@@ -25152,7 +25137,7 @@
         <v>2</v>
       </c>
       <c r="D540" s="1" t="s">
-        <v>1</v>
+        <v>3962</v>
       </c>
       <c r="G540" t="s">
         <v>4768</v>
@@ -25169,7 +25154,7 @@
         <v>0</v>
       </c>
       <c r="D541" s="1" t="s">
-        <v>1</v>
+        <v>4126</v>
       </c>
       <c r="G541" t="s">
         <v>4838</v>
@@ -25185,7 +25170,7 @@
       <c r="C542" t="s">
         <v>0</v>
       </c>
-      <c r="D542" s="1" t="s">
+      <c r="D542" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G542" t="s">
@@ -25203,7 +25188,7 @@
         <v>39</v>
       </c>
       <c r="D543" s="1" t="s">
-        <v>1</v>
+        <v>4136</v>
       </c>
       <c r="G543" t="s">
         <v>4782</v>
@@ -25220,7 +25205,7 @@
         <v>0</v>
       </c>
       <c r="D544" s="1" t="s">
-        <v>1</v>
+        <v>4139</v>
       </c>
       <c r="G544" t="s">
         <v>4838</v>
@@ -25237,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="D545" s="1" t="s">
-        <v>1</v>
+        <v>4148</v>
       </c>
       <c r="G545" t="s">
         <v>4837</v>
@@ -25254,7 +25239,7 @@
         <v>39</v>
       </c>
       <c r="D546" s="1" t="s">
-        <v>1</v>
+        <v>4148</v>
       </c>
       <c r="G546" t="s">
         <v>4837</v>
@@ -25270,7 +25255,7 @@
       <c r="C547" t="s">
         <v>0</v>
       </c>
-      <c r="D547" s="1" t="s">
+      <c r="D547" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G547" t="s">
@@ -25288,7 +25273,7 @@
         <v>0</v>
       </c>
       <c r="D548" s="1" t="s">
-        <v>1</v>
+        <v>4150</v>
       </c>
       <c r="G548" t="s">
         <v>4838</v>
@@ -25305,7 +25290,7 @@
         <v>0</v>
       </c>
       <c r="D549" s="1" t="s">
-        <v>1</v>
+        <v>4125</v>
       </c>
     </row>
     <row r="550" spans="1:7">
@@ -25319,7 +25304,7 @@
         <v>39</v>
       </c>
       <c r="D550" s="1" t="s">
-        <v>1</v>
+        <v>4163</v>
       </c>
       <c r="G550" t="s">
         <v>4782</v>
@@ -25336,7 +25321,7 @@
         <v>0</v>
       </c>
       <c r="D551" s="1" t="s">
-        <v>1</v>
+        <v>4004</v>
       </c>
       <c r="G551" t="s">
         <v>4838</v>
@@ -25353,7 +25338,7 @@
         <v>0</v>
       </c>
       <c r="D552" s="1" t="s">
-        <v>1</v>
+        <v>4151</v>
       </c>
       <c r="G552" t="s">
         <v>4837</v>
@@ -25370,7 +25355,7 @@
         <v>39</v>
       </c>
       <c r="D553" s="1" t="s">
-        <v>1</v>
+        <v>4151</v>
       </c>
       <c r="G553" t="s">
         <v>4837</v>
@@ -25386,7 +25371,7 @@
       <c r="C554" t="s">
         <v>39</v>
       </c>
-      <c r="D554" s="1" t="s">
+      <c r="D554" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G554" t="s">
@@ -25403,7 +25388,7 @@
       <c r="C555" t="s">
         <v>0</v>
       </c>
-      <c r="D555" s="1" t="s">
+      <c r="D555" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G555" t="s">
@@ -25421,7 +25406,7 @@
         <v>0</v>
       </c>
       <c r="D556" s="1" t="s">
-        <v>1</v>
+        <v>4153</v>
       </c>
       <c r="G556" t="s">
         <v>4838</v>
@@ -25438,7 +25423,7 @@
         <v>0</v>
       </c>
       <c r="D557" s="1" t="s">
-        <v>1</v>
+        <v>5016</v>
       </c>
       <c r="G557" t="s">
         <v>4838</v>
@@ -25455,7 +25440,7 @@
         <v>0</v>
       </c>
       <c r="D558" s="1" t="s">
-        <v>1</v>
+        <v>4160</v>
       </c>
       <c r="G558" t="s">
         <v>4844</v>
@@ -25471,8 +25456,8 @@
       <c r="C559" t="s">
         <v>0</v>
       </c>
-      <c r="D559" s="1" t="s">
-        <v>1</v>
+      <c r="D559" s="5" t="s">
+        <v>4160</v>
       </c>
       <c r="G559" t="s">
         <v>4838</v>
@@ -25488,8 +25473,8 @@
       <c r="C560" t="s">
         <v>0</v>
       </c>
-      <c r="D560" s="1" t="s">
-        <v>1</v>
+      <c r="D560" s="5" t="s">
+        <v>4160</v>
       </c>
       <c r="G560" t="s">
         <v>4838</v>
@@ -25505,8 +25490,8 @@
       <c r="C561" t="s">
         <v>0</v>
       </c>
-      <c r="D561" s="1" t="s">
-        <v>1</v>
+      <c r="D561" s="5" t="s">
+        <v>4160</v>
       </c>
       <c r="G561" t="s">
         <v>4838</v>
@@ -25580,7 +25565,7 @@
         <v>39</v>
       </c>
       <c r="D565" s="1" t="s">
-        <v>1</v>
+        <v>5008</v>
       </c>
       <c r="G565" t="s">
         <v>4782</v>
@@ -25597,7 +25582,7 @@
         <v>0</v>
       </c>
       <c r="D566" s="1" t="s">
-        <v>1</v>
+        <v>3996</v>
       </c>
       <c r="G566" t="s">
         <v>4756</v>
@@ -25613,8 +25598,8 @@
       <c r="C567" t="s">
         <v>0</v>
       </c>
-      <c r="D567" s="1" t="s">
-        <v>1</v>
+      <c r="D567" s="5" t="s">
+        <v>3996</v>
       </c>
       <c r="G567" t="s">
         <v>4838</v>
@@ -25631,7 +25616,7 @@
         <v>0</v>
       </c>
       <c r="D568" s="1" t="s">
-        <v>1</v>
+        <v>3998</v>
       </c>
       <c r="G568" t="s">
         <v>4756</v>
@@ -25648,7 +25633,7 @@
         <v>39</v>
       </c>
       <c r="D569" s="1" t="s">
-        <v>1</v>
+        <v>3998</v>
       </c>
       <c r="G569" t="s">
         <v>4782</v>
@@ -25665,7 +25650,7 @@
         <v>0</v>
       </c>
       <c r="D570" s="1" t="s">
-        <v>1</v>
+        <v>3996</v>
       </c>
       <c r="G570" t="s">
         <v>4838</v>
@@ -25682,7 +25667,7 @@
         <v>2</v>
       </c>
       <c r="D571" s="1" t="s">
-        <v>1</v>
+        <v>4040</v>
       </c>
       <c r="G571" t="s">
         <v>4768</v>
@@ -25699,7 +25684,7 @@
         <v>0</v>
       </c>
       <c r="D572" s="1" t="s">
-        <v>1</v>
+        <v>5017</v>
       </c>
       <c r="G572" t="s">
         <v>4838</v>
@@ -25716,7 +25701,7 @@
         <v>0</v>
       </c>
       <c r="D573" s="1" t="s">
-        <v>1</v>
+        <v>5017</v>
       </c>
       <c r="G573" t="s">
         <v>4838</v>
@@ -25733,7 +25718,7 @@
         <v>0</v>
       </c>
       <c r="D574" s="1" t="s">
-        <v>1</v>
+        <v>5019</v>
       </c>
     </row>
     <row r="575" spans="1:7">
@@ -25747,7 +25732,7 @@
         <v>0</v>
       </c>
       <c r="D575" s="1" t="s">
-        <v>1</v>
+        <v>5020</v>
       </c>
     </row>
     <row r="576" spans="1:7">
@@ -25761,7 +25746,7 @@
         <v>0</v>
       </c>
       <c r="D576" s="1" t="s">
-        <v>1</v>
+        <v>4411</v>
       </c>
       <c r="G576" t="s">
         <v>4787</v>
@@ -25777,7 +25762,7 @@
       <c r="C577" t="s">
         <v>2</v>
       </c>
-      <c r="D577" s="1" t="s">
+      <c r="D577" s="5" t="s">
         <v>1</v>
       </c>
     </row>
@@ -25791,7 +25776,7 @@
       <c r="C578" t="s">
         <v>39</v>
       </c>
-      <c r="D578" s="1" t="s">
+      <c r="D578" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G578" t="s">
@@ -25809,7 +25794,7 @@
         <v>0</v>
       </c>
       <c r="D579" s="1" t="s">
-        <v>1</v>
+        <v>4167</v>
       </c>
       <c r="G579" t="s">
         <v>4787</v>
@@ -25826,7 +25811,7 @@
         <v>0</v>
       </c>
       <c r="D580" s="1" t="s">
-        <v>1</v>
+        <v>4167</v>
       </c>
     </row>
     <row r="581" spans="1:7">
@@ -25840,7 +25825,7 @@
         <v>0</v>
       </c>
       <c r="D581" s="1" t="s">
-        <v>1</v>
+        <v>4167</v>
       </c>
       <c r="G581" t="s">
         <v>4838</v>
@@ -25857,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="D582" s="1" t="s">
-        <v>1</v>
+        <v>4172</v>
       </c>
       <c r="G582" t="s">
         <v>4756</v>
@@ -25874,7 +25859,7 @@
         <v>0</v>
       </c>
       <c r="D583" s="1" t="s">
-        <v>1</v>
+        <v>4417</v>
       </c>
       <c r="G583" t="s">
         <v>4838</v>
@@ -25891,7 +25876,7 @@
         <v>0</v>
       </c>
       <c r="D584" s="1" t="s">
-        <v>1</v>
+        <v>4179</v>
       </c>
       <c r="G584" t="s">
         <v>4845</v>
@@ -25908,7 +25893,7 @@
         <v>39</v>
       </c>
       <c r="D585" s="1" t="s">
-        <v>1</v>
+        <v>4179</v>
       </c>
       <c r="G585" t="s">
         <v>4845</v>
@@ -25925,7 +25910,7 @@
         <v>39</v>
       </c>
       <c r="D586" s="1" t="s">
-        <v>1</v>
+        <v>4179</v>
       </c>
       <c r="G586" t="s">
         <v>4782</v>
@@ -25942,7 +25927,7 @@
         <v>0</v>
       </c>
       <c r="D587" s="1" t="s">
-        <v>1</v>
+        <v>4418</v>
       </c>
       <c r="G587" t="s">
         <v>4837</v>
@@ -25959,7 +25944,7 @@
         <v>39</v>
       </c>
       <c r="D588" s="1" t="s">
-        <v>1</v>
+        <v>4418</v>
       </c>
       <c r="G588" t="s">
         <v>4837</v>
@@ -25975,8 +25960,8 @@
       <c r="C589" t="s">
         <v>0</v>
       </c>
-      <c r="D589" s="1" t="s">
-        <v>1</v>
+      <c r="D589" s="5" t="s">
+        <v>4418</v>
       </c>
       <c r="G589" t="s">
         <v>4837</v>
@@ -25992,8 +25977,8 @@
       <c r="C590" t="s">
         <v>39</v>
       </c>
-      <c r="D590" s="1" t="s">
-        <v>1</v>
+      <c r="D590" s="5" t="s">
+        <v>4418</v>
       </c>
       <c r="G590" t="s">
         <v>4837</v>
@@ -26010,7 +25995,7 @@
         <v>0</v>
       </c>
       <c r="D591" s="1" t="s">
-        <v>1</v>
+        <v>4179</v>
       </c>
       <c r="G591" t="s">
         <v>4787</v>
@@ -26027,7 +26012,7 @@
         <v>0</v>
       </c>
       <c r="D592" s="1" t="s">
-        <v>1</v>
+        <v>5021</v>
       </c>
       <c r="G592" t="s">
         <v>4838</v>
@@ -26043,7 +26028,7 @@
       <c r="C593" t="s">
         <v>0</v>
       </c>
-      <c r="D593" s="1" t="s">
+      <c r="D593" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G593" t="s">
@@ -26061,7 +26046,7 @@
         <v>0</v>
       </c>
       <c r="D594" s="1" t="s">
-        <v>1</v>
+        <v>4185</v>
       </c>
       <c r="G594" t="s">
         <v>4756</v>
@@ -26077,7 +26062,7 @@
       <c r="C595" t="s">
         <v>39</v>
       </c>
-      <c r="D595" s="1" t="s">
+      <c r="D595" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G595" t="s">
@@ -26132,7 +26117,7 @@
         <v>0</v>
       </c>
       <c r="D598" s="1" t="s">
-        <v>1</v>
+        <v>4191</v>
       </c>
     </row>
     <row r="599" spans="1:7">
@@ -26145,6 +26130,9 @@
       <c r="C599" t="s">
         <v>39</v>
       </c>
+      <c r="D599" s="1" t="s">
+        <v>4191</v>
+      </c>
       <c r="G599" t="s">
         <v>4782</v>
       </c>
@@ -26160,7 +26148,7 @@
         <v>0</v>
       </c>
       <c r="D600" s="1" t="s">
-        <v>1</v>
+        <v>4204</v>
       </c>
       <c r="G600" t="s">
         <v>4841</v>
@@ -26177,7 +26165,7 @@
         <v>39</v>
       </c>
       <c r="D601" s="1" t="s">
-        <v>1</v>
+        <v>4204</v>
       </c>
       <c r="G601" t="s">
         <v>4782</v>
@@ -26194,7 +26182,7 @@
         <v>0</v>
       </c>
       <c r="D602" s="1" t="s">
-        <v>1</v>
+        <v>4204</v>
       </c>
       <c r="G602" t="s">
         <v>4787</v>
@@ -26211,7 +26199,7 @@
         <v>0</v>
       </c>
       <c r="D603" s="1" t="s">
-        <v>1</v>
+        <v>4206</v>
       </c>
       <c r="G603" t="s">
         <v>4756</v>
@@ -26228,7 +26216,7 @@
         <v>0</v>
       </c>
       <c r="D604" s="1" t="s">
-        <v>1</v>
+        <v>4206</v>
       </c>
       <c r="G604" t="s">
         <v>4787</v>
@@ -26245,7 +26233,7 @@
         <v>39</v>
       </c>
       <c r="D605" s="1" t="s">
-        <v>1</v>
+        <v>4214</v>
       </c>
       <c r="G605" t="s">
         <v>4782</v>
@@ -26262,7 +26250,7 @@
         <v>0</v>
       </c>
       <c r="D606" s="1" t="s">
-        <v>1</v>
+        <v>4214</v>
       </c>
       <c r="G606" t="s">
         <v>4787</v>
@@ -26279,7 +26267,7 @@
         <v>0</v>
       </c>
       <c r="D607" s="1" t="s">
-        <v>1</v>
+        <v>4224</v>
       </c>
       <c r="G607" t="s">
         <v>4756</v>
@@ -26295,8 +26283,8 @@
       <c r="C608" t="s">
         <v>0</v>
       </c>
-      <c r="D608" s="1" t="s">
-        <v>1</v>
+      <c r="D608" s="5" t="s">
+        <v>4222</v>
       </c>
       <c r="G608" t="s">
         <v>4756</v>
@@ -26312,8 +26300,8 @@
       <c r="C609" t="s">
         <v>0</v>
       </c>
-      <c r="D609" s="1" t="s">
-        <v>1</v>
+      <c r="D609" s="5" t="s">
+        <v>4222</v>
       </c>
       <c r="G609" t="s">
         <v>4787</v>
@@ -26329,8 +26317,8 @@
       <c r="C610" t="s">
         <v>0</v>
       </c>
-      <c r="D610" s="1" t="s">
-        <v>1</v>
+      <c r="D610" s="5" t="s">
+        <v>4222</v>
       </c>
       <c r="G610" t="s">
         <v>4756</v>
@@ -26347,7 +26335,7 @@
         <v>0</v>
       </c>
       <c r="D611" s="1" t="s">
-        <v>1</v>
+        <v>4222</v>
       </c>
       <c r="G611" t="s">
         <v>4787</v>
@@ -26364,7 +26352,7 @@
         <v>0</v>
       </c>
       <c r="D612" s="1" t="s">
-        <v>1</v>
+        <v>4224</v>
       </c>
       <c r="G612" t="s">
         <v>4787</v>
@@ -26380,7 +26368,7 @@
       <c r="C613" t="s">
         <v>2</v>
       </c>
-      <c r="D613" s="1" t="s">
+      <c r="D613" s="5" t="s">
         <v>1</v>
       </c>
     </row>
@@ -26394,7 +26382,7 @@
       <c r="C614" t="s">
         <v>0</v>
       </c>
-      <c r="D614" s="1" t="s">
+      <c r="D614" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G614" t="s">
@@ -26412,7 +26400,7 @@
         <v>0</v>
       </c>
       <c r="D615" s="1" t="s">
-        <v>1</v>
+        <v>4228</v>
       </c>
       <c r="G615" t="s">
         <v>4756</v>
@@ -26429,7 +26417,7 @@
         <v>0</v>
       </c>
       <c r="D616" s="1" t="s">
-        <v>1</v>
+        <v>4229</v>
       </c>
       <c r="G616" t="s">
         <v>4756</v>
@@ -26446,7 +26434,7 @@
         <v>0</v>
       </c>
       <c r="D617" s="1" t="s">
-        <v>1</v>
+        <v>4228</v>
       </c>
       <c r="G617" t="s">
         <v>4787</v>
@@ -26463,7 +26451,7 @@
         <v>0</v>
       </c>
       <c r="D618" s="1" t="s">
-        <v>1</v>
+        <v>4229</v>
       </c>
       <c r="G618" t="s">
         <v>4787</v>
@@ -26480,7 +26468,7 @@
         <v>0</v>
       </c>
       <c r="D619" s="1" t="s">
-        <v>1</v>
+        <v>4248</v>
       </c>
       <c r="G619" t="s">
         <v>4756</v>
@@ -26497,7 +26485,7 @@
         <v>0</v>
       </c>
       <c r="D620" s="1" t="s">
-        <v>1</v>
+        <v>4248</v>
       </c>
       <c r="G620" t="s">
         <v>4787</v>
@@ -26514,7 +26502,7 @@
         <v>0</v>
       </c>
       <c r="D621" s="1" t="s">
-        <v>1</v>
+        <v>4248</v>
       </c>
       <c r="G621" t="s">
         <v>4756</v>
@@ -26531,7 +26519,7 @@
         <v>0</v>
       </c>
       <c r="D622" s="1" t="s">
-        <v>1</v>
+        <v>4248</v>
       </c>
       <c r="G622" t="s">
         <v>4787</v>
@@ -26548,7 +26536,7 @@
         <v>0</v>
       </c>
       <c r="D623" s="1" t="s">
-        <v>1</v>
+        <v>4248</v>
       </c>
     </row>
     <row r="624" spans="1:7">
@@ -26562,7 +26550,7 @@
         <v>0</v>
       </c>
       <c r="D624" s="1" t="s">
-        <v>1</v>
+        <v>4254</v>
       </c>
       <c r="G624" t="s">
         <v>4756</v>
@@ -26579,7 +26567,7 @@
         <v>39</v>
       </c>
       <c r="D625" s="1" t="s">
-        <v>1</v>
+        <v>4254</v>
       </c>
       <c r="G625" t="s">
         <v>4782</v>
@@ -26596,7 +26584,7 @@
         <v>2</v>
       </c>
       <c r="D626" s="1" t="s">
-        <v>1</v>
+        <v>4256</v>
       </c>
       <c r="G626" t="s">
         <v>4768</v>
@@ -26612,7 +26600,7 @@
       <c r="C627" t="s">
         <v>0</v>
       </c>
-      <c r="D627" s="1" t="s">
+      <c r="D627" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G627" t="s">
@@ -26630,7 +26618,7 @@
         <v>39</v>
       </c>
       <c r="D628" s="1" t="s">
-        <v>1</v>
+        <v>5022</v>
       </c>
       <c r="G628" t="s">
         <v>4782</v>
@@ -26647,7 +26635,7 @@
         <v>0</v>
       </c>
       <c r="D629" s="1" t="s">
-        <v>1</v>
+        <v>4425</v>
       </c>
       <c r="G629" t="s">
         <v>4756</v>
@@ -26664,7 +26652,7 @@
         <v>0</v>
       </c>
       <c r="D630" s="1" t="s">
-        <v>1</v>
+        <v>4427</v>
       </c>
       <c r="G630" t="s">
         <v>4756</v>
@@ -26680,7 +26668,7 @@
       <c r="C631" t="s">
         <v>0</v>
       </c>
-      <c r="D631" s="1" t="s">
+      <c r="D631" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G631" t="s">
@@ -26697,7 +26685,7 @@
       <c r="C632" t="s">
         <v>0</v>
       </c>
-      <c r="D632" s="1" t="s">
+      <c r="D632" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G632" t="s">
@@ -26715,7 +26703,7 @@
         <v>0</v>
       </c>
       <c r="D633" s="1" t="s">
-        <v>1</v>
+        <v>4356</v>
       </c>
       <c r="G633" t="s">
         <v>4838</v>
@@ -26732,7 +26720,7 @@
         <v>39</v>
       </c>
       <c r="D634" s="1" t="s">
-        <v>1</v>
+        <v>4416</v>
       </c>
       <c r="G634" t="s">
         <v>4782</v>
@@ -26749,7 +26737,7 @@
         <v>39</v>
       </c>
       <c r="D635" s="1" t="s">
-        <v>1</v>
+        <v>4426</v>
       </c>
       <c r="G635" t="s">
         <v>4782</v>
@@ -26765,7 +26753,7 @@
       <c r="C636" t="s">
         <v>39</v>
       </c>
-      <c r="D636" s="1" t="s">
+      <c r="D636" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G636" t="s">
@@ -26783,7 +26771,7 @@
         <v>39</v>
       </c>
       <c r="D637" s="1" t="s">
-        <v>1</v>
+        <v>5023</v>
       </c>
       <c r="G637" t="s">
         <v>4782</v>
@@ -26800,7 +26788,7 @@
         <v>39</v>
       </c>
       <c r="D638" s="1" t="s">
-        <v>1</v>
+        <v>5023</v>
       </c>
       <c r="G638" t="s">
         <v>4782</v>
@@ -26816,7 +26804,7 @@
       <c r="C639" t="s">
         <v>0</v>
       </c>
-      <c r="D639" s="1" t="s">
+      <c r="D639" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G639" t="s">
@@ -26834,7 +26822,7 @@
         <v>0</v>
       </c>
       <c r="D640" s="1" t="s">
-        <v>1</v>
+        <v>4330</v>
       </c>
       <c r="G640" t="s">
         <v>4838</v>
@@ -26851,7 +26839,7 @@
         <v>0</v>
       </c>
       <c r="D641" s="1" t="s">
-        <v>1</v>
+        <v>4334</v>
       </c>
       <c r="G641" t="s">
         <v>4787</v>
@@ -26868,7 +26856,7 @@
         <v>0</v>
       </c>
       <c r="D642" s="1" t="s">
-        <v>1</v>
+        <v>4356</v>
       </c>
       <c r="G642" t="s">
         <v>4837</v>
@@ -26885,7 +26873,7 @@
         <v>39</v>
       </c>
       <c r="D643" s="1" t="s">
-        <v>1</v>
+        <v>4356</v>
       </c>
       <c r="G643" t="s">
         <v>4837</v>
@@ -26902,7 +26890,7 @@
         <v>2</v>
       </c>
       <c r="D644" s="1" t="s">
-        <v>1</v>
+        <v>4336</v>
       </c>
       <c r="G644" t="s">
         <v>4782</v>
@@ -26918,9 +26906,7 @@
       <c r="C645" t="s">
         <v>39</v>
       </c>
-      <c r="D645" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="D645" s="5"/>
       <c r="G645" t="s">
         <v>4782</v>
       </c>
@@ -26936,7 +26922,7 @@
         <v>2</v>
       </c>
       <c r="D646" s="1" t="s">
-        <v>1</v>
+        <v>4416</v>
       </c>
       <c r="G646" t="s">
         <v>4792</v>
@@ -26953,7 +26939,7 @@
         <v>0</v>
       </c>
       <c r="D647" s="1" t="s">
-        <v>1</v>
+        <v>4416</v>
       </c>
       <c r="G647" t="s">
         <v>4792</v>
@@ -26970,7 +26956,7 @@
         <v>0</v>
       </c>
       <c r="D648" s="1" t="s">
-        <v>1</v>
+        <v>5024</v>
       </c>
       <c r="G648" t="s">
         <v>4838</v>
@@ -26986,8 +26972,8 @@
       <c r="C649" t="s">
         <v>0</v>
       </c>
-      <c r="D649" s="1" t="s">
-        <v>1</v>
+      <c r="D649" s="5" t="s">
+        <v>5024</v>
       </c>
       <c r="G649" t="s">
         <v>4838</v>
@@ -27004,7 +26990,7 @@
         <v>0</v>
       </c>
       <c r="D650" s="1" t="s">
-        <v>1</v>
+        <v>4425</v>
       </c>
       <c r="G650" t="s">
         <v>4838</v>
@@ -27020,9 +27006,7 @@
       <c r="C651" t="s">
         <v>39</v>
       </c>
-      <c r="D651" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="D651" s="5"/>
       <c r="G651" t="s">
         <v>4782</v>
       </c>
@@ -27038,7 +27022,7 @@
         <v>39</v>
       </c>
       <c r="D652" s="1" t="s">
-        <v>1</v>
+        <v>4427</v>
       </c>
       <c r="G652" t="s">
         <v>4782</v>
@@ -27055,7 +27039,7 @@
         <v>0</v>
       </c>
       <c r="D653" s="1" t="s">
-        <v>1</v>
+        <v>4435</v>
       </c>
       <c r="G653" t="s">
         <v>4837</v>
@@ -27072,7 +27056,7 @@
         <v>39</v>
       </c>
       <c r="D654" s="1" t="s">
-        <v>1</v>
+        <v>4435</v>
       </c>
       <c r="G654" t="s">
         <v>4837</v>
@@ -27089,7 +27073,7 @@
         <v>0</v>
       </c>
       <c r="D655" s="1" t="s">
-        <v>1</v>
+        <v>4356</v>
       </c>
       <c r="G655" t="s">
         <v>4839</v>
@@ -27106,7 +27090,7 @@
         <v>0</v>
       </c>
       <c r="D656" s="1" t="s">
-        <v>1</v>
+        <v>4445</v>
       </c>
       <c r="G656" t="s">
         <v>4838</v>
@@ -27123,7 +27107,7 @@
         <v>39</v>
       </c>
       <c r="D657" s="1" t="s">
-        <v>1</v>
+        <v>4445</v>
       </c>
       <c r="G657" t="s">
         <v>4782</v>
@@ -27140,7 +27124,7 @@
         <v>39</v>
       </c>
       <c r="D658" s="1" t="s">
-        <v>1</v>
+        <v>5025</v>
       </c>
       <c r="G658" t="s">
         <v>4782</v>
@@ -27157,7 +27141,7 @@
         <v>0</v>
       </c>
       <c r="D659" s="1" t="s">
-        <v>1</v>
+        <v>4441</v>
       </c>
       <c r="G659" t="s">
         <v>4838</v>
@@ -27174,7 +27158,7 @@
         <v>0</v>
       </c>
       <c r="D660" s="1" t="s">
-        <v>1</v>
+        <v>4371</v>
       </c>
       <c r="G660" t="s">
         <v>4756</v>
@@ -27191,7 +27175,7 @@
         <v>39</v>
       </c>
       <c r="D661" s="1" t="s">
-        <v>1</v>
+        <v>4371</v>
       </c>
       <c r="G661" t="s">
         <v>4782</v>
@@ -27208,7 +27192,7 @@
         <v>0</v>
       </c>
       <c r="D662" s="1" t="s">
-        <v>1</v>
+        <v>4371</v>
       </c>
       <c r="G662" t="s">
         <v>4787</v>
@@ -27225,7 +27209,7 @@
         <v>2</v>
       </c>
       <c r="D663" s="1" t="s">
-        <v>1</v>
+        <v>4361</v>
       </c>
       <c r="G663" t="s">
         <v>4768</v>
@@ -27241,7 +27225,7 @@
       <c r="C664" t="s">
         <v>0</v>
       </c>
-      <c r="D664" s="1" t="s">
+      <c r="D664" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G664" t="s">
@@ -27258,7 +27242,7 @@
       <c r="C665" t="s">
         <v>0</v>
       </c>
-      <c r="D665" s="1" t="s">
+      <c r="D665" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G665" t="s">
@@ -27275,7 +27259,7 @@
       <c r="C666" t="s">
         <v>0</v>
       </c>
-      <c r="D666" s="1" t="s">
+      <c r="D666" s="5" t="s">
         <v>1</v>
       </c>
     </row>
@@ -27491,7 +27475,7 @@
         <v>0</v>
       </c>
       <c r="D679" s="1" t="s">
-        <v>5003</v>
+        <v>4405</v>
       </c>
       <c r="G679" t="s">
         <v>4756</v>
@@ -27508,7 +27492,7 @@
         <v>0</v>
       </c>
       <c r="D680" s="1" t="s">
-        <v>5002</v>
+        <v>4406</v>
       </c>
       <c r="G680" t="s">
         <v>4787</v>
@@ -27525,7 +27509,7 @@
         <v>0</v>
       </c>
       <c r="D681" s="1" t="s">
-        <v>5001</v>
+        <v>4409</v>
       </c>
       <c r="G681" t="s">
         <v>4756</v>
@@ -27542,7 +27526,7 @@
         <v>39</v>
       </c>
       <c r="D682" s="1" t="s">
-        <v>5000</v>
+        <v>4411</v>
       </c>
       <c r="G682" t="s">
         <v>4782</v>

--- a/lemmatizer/lemma_list.xlsx
+++ b/lemmatizer/lemma_list.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19643" uniqueCount="5027">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19643" uniqueCount="5034">
   <si>
     <t>V</t>
   </si>
@@ -15102,6 +15102,27 @@
   </si>
   <si>
     <t>ⲙⲟⲩϫϭ</t>
+  </si>
+  <si>
+    <t>ⲱⲣⲃ</t>
+  </si>
+  <si>
+    <t>ⲉⲧⲛ</t>
+  </si>
+  <si>
+    <t>ⲧϩⲡⲟ</t>
+  </si>
+  <si>
+    <t>ⲧⲡⲣϣⲟ</t>
+  </si>
+  <si>
+    <t>ⲕⲱⲕ</t>
+  </si>
+  <si>
+    <t>ⲗⲱϫⲧ</t>
+  </si>
+  <si>
+    <t>ⲙⲟⲩⲛ</t>
   </si>
 </sst>
 </file>
@@ -15624,8 +15645,8 @@
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:H5245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A230" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D230" sqref="D230"/>
+    <sheetView tabSelected="1" topLeftCell="A140" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D157" sqref="D157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -20179,6 +20200,9 @@
       <c r="C247" t="s">
         <v>275</v>
       </c>
+      <c r="D247" s="1" t="s">
+        <v>452</v>
+      </c>
       <c r="G247" t="s">
         <v>4783</v>
       </c>
@@ -20194,7 +20218,7 @@
         <v>275</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>1</v>
+        <v>457</v>
       </c>
       <c r="G248" t="s">
         <v>4846</v>
@@ -20211,7 +20235,7 @@
         <v>24</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>1</v>
+        <v>477</v>
       </c>
       <c r="G249" t="s">
         <v>4824</v>
@@ -20227,7 +20251,7 @@
       <c r="C250" t="s">
         <v>24</v>
       </c>
-      <c r="D250" s="1" t="s">
+      <c r="D250" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G250" t="s">
@@ -20245,7 +20269,7 @@
         <v>24</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>1</v>
+        <v>934</v>
       </c>
       <c r="G251" t="s">
         <v>4824</v>
@@ -20262,7 +20286,7 @@
         <v>24</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>1</v>
+        <v>1557</v>
       </c>
       <c r="G252" t="s">
         <v>4824</v>
@@ -20279,7 +20303,7 @@
         <v>0</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>1</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="254" spans="1:7">
@@ -20292,7 +20316,7 @@
       <c r="C254" t="s">
         <v>0</v>
       </c>
-      <c r="D254" s="1" t="s">
+      <c r="D254" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G254" t="s">
@@ -20309,7 +20333,7 @@
       <c r="C255" t="s">
         <v>39</v>
       </c>
-      <c r="D255" s="1" t="s">
+      <c r="D255" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G255" t="s">
@@ -20326,7 +20350,7 @@
       <c r="C256" t="s">
         <v>0</v>
       </c>
-      <c r="D256" s="1" t="s">
+      <c r="D256" s="5" t="s">
         <v>1</v>
       </c>
     </row>
@@ -20340,7 +20364,7 @@
       <c r="C257" t="s">
         <v>0</v>
       </c>
-      <c r="D257" s="1" t="s">
+      <c r="D257" s="5" t="s">
         <v>1</v>
       </c>
     </row>
@@ -20355,7 +20379,7 @@
         <v>0</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>1</v>
+        <v>1613</v>
       </c>
       <c r="G258" t="s">
         <v>4756</v>
@@ -20371,7 +20395,7 @@
       <c r="C259" t="s">
         <v>0</v>
       </c>
-      <c r="D259" s="1" t="s">
+      <c r="D259" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G259" t="s">
@@ -20388,7 +20412,7 @@
       <c r="C260" t="s">
         <v>24</v>
       </c>
-      <c r="D260" s="1" t="s">
+      <c r="D260" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G260" t="s">
@@ -20405,7 +20429,7 @@
       <c r="C261" t="s">
         <v>0</v>
       </c>
-      <c r="D261" s="1" t="s">
+      <c r="D261" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G261" t="s">
@@ -20422,7 +20446,7 @@
       <c r="C262" t="s">
         <v>0</v>
       </c>
-      <c r="D262" s="1" t="s">
+      <c r="D262" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G262" t="s">
@@ -20440,7 +20464,7 @@
         <v>24</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>1</v>
+        <v>1774</v>
       </c>
       <c r="G263" t="s">
         <v>4824</v>
@@ -20457,7 +20481,7 @@
         <v>24</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>1</v>
+        <v>1774</v>
       </c>
       <c r="G264" t="s">
         <v>4824</v>
@@ -20474,7 +20498,7 @@
         <v>0</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>1</v>
+        <v>5027</v>
       </c>
       <c r="G265" t="s">
         <v>4756</v>
@@ -20490,9 +20514,7 @@
       <c r="C266" t="s">
         <v>24</v>
       </c>
-      <c r="D266" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="D266" s="5"/>
       <c r="G266" t="s">
         <v>4824</v>
       </c>
@@ -20507,7 +20529,7 @@
       <c r="C267" t="s">
         <v>24</v>
       </c>
-      <c r="D267" s="1" t="s">
+      <c r="D267" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G267" t="s">
@@ -20525,7 +20547,7 @@
         <v>24</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>1</v>
+        <v>1801</v>
       </c>
       <c r="G268" t="s">
         <v>4824</v>
@@ -20542,7 +20564,7 @@
         <v>24</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>1</v>
+        <v>1801</v>
       </c>
       <c r="G269" t="s">
         <v>4824</v>
@@ -20559,7 +20581,7 @@
         <v>0</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>1</v>
+        <v>1809</v>
       </c>
       <c r="G270" t="s">
         <v>4761</v>
@@ -20576,7 +20598,7 @@
         <v>24</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>1</v>
+        <v>5028</v>
       </c>
       <c r="G271" t="s">
         <v>4824</v>
@@ -20593,7 +20615,7 @@
         <v>39</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>1</v>
+        <v>4592</v>
       </c>
       <c r="G272" t="s">
         <v>4782</v>
@@ -20610,7 +20632,7 @@
         <v>0</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>1</v>
+        <v>1889</v>
       </c>
       <c r="G273" t="s">
         <v>4756</v>
@@ -20627,7 +20649,7 @@
         <v>39</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>1</v>
+        <v>1889</v>
       </c>
       <c r="G274" t="s">
         <v>4782</v>
@@ -20644,7 +20666,7 @@
         <v>0</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>1</v>
+        <v>1929</v>
       </c>
       <c r="G275" t="s">
         <v>4756</v>
@@ -20661,7 +20683,7 @@
         <v>0</v>
       </c>
       <c r="D276" s="1" t="s">
-        <v>1</v>
+        <v>1929</v>
       </c>
       <c r="G276" t="s">
         <v>4787</v>
@@ -20678,7 +20700,7 @@
         <v>0</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>1</v>
+        <v>1932</v>
       </c>
       <c r="G277" t="s">
         <v>4787</v>
@@ -20695,7 +20717,7 @@
         <v>0</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>1</v>
+        <v>5029</v>
       </c>
       <c r="G278" t="s">
         <v>4838</v>
@@ -20712,7 +20734,7 @@
         <v>0</v>
       </c>
       <c r="D279" s="1" t="s">
-        <v>1</v>
+        <v>5030</v>
       </c>
       <c r="G279" t="s">
         <v>4787</v>
@@ -20728,7 +20750,7 @@
       <c r="C280" t="s">
         <v>0</v>
       </c>
-      <c r="D280" s="1" t="s">
+      <c r="D280" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G280" t="s">
@@ -20746,7 +20768,7 @@
         <v>0</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>1</v>
+        <v>2316</v>
       </c>
       <c r="G281" t="s">
         <v>4756</v>
@@ -20762,7 +20784,7 @@
       <c r="C282" t="s">
         <v>0</v>
       </c>
-      <c r="D282" s="1" t="s">
+      <c r="D282" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G282" t="s">
@@ -20780,7 +20802,7 @@
         <v>0</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>1</v>
+        <v>2316</v>
       </c>
       <c r="G283" t="s">
         <v>4838</v>
@@ -20796,7 +20818,7 @@
       <c r="C284" t="s">
         <v>0</v>
       </c>
-      <c r="D284" s="1" t="s">
+      <c r="D284" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G284" t="s">
@@ -20813,8 +20835,8 @@
       <c r="C285" t="s">
         <v>0</v>
       </c>
-      <c r="D285" s="1" t="s">
-        <v>1</v>
+      <c r="D285" s="5" t="s">
+        <v>3785</v>
       </c>
       <c r="G285" t="s">
         <v>4838</v>
@@ -20831,7 +20853,7 @@
         <v>24</v>
       </c>
       <c r="D286" s="1" t="s">
-        <v>1</v>
+        <v>2087</v>
       </c>
       <c r="G286" t="s">
         <v>4824</v>
@@ -20848,7 +20870,7 @@
         <v>24</v>
       </c>
       <c r="D287" s="1" t="s">
-        <v>1</v>
+        <v>2087</v>
       </c>
       <c r="G287" t="s">
         <v>4824</v>
@@ -20864,7 +20886,7 @@
       <c r="C288" t="s">
         <v>0</v>
       </c>
-      <c r="D288" s="1" t="s">
+      <c r="D288" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G288" t="s">
@@ -20881,7 +20903,7 @@
       <c r="C289" t="s">
         <v>39</v>
       </c>
-      <c r="D289" s="1" t="s">
+      <c r="D289" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G289" t="s">
@@ -20899,7 +20921,7 @@
         <v>0</v>
       </c>
       <c r="D290" s="1" t="s">
-        <v>1</v>
+        <v>2355</v>
       </c>
       <c r="G290" t="s">
         <v>4794</v>
@@ -20916,7 +20938,7 @@
         <v>39</v>
       </c>
       <c r="D291" s="1" t="s">
-        <v>1</v>
+        <v>2316</v>
       </c>
       <c r="G291" t="s">
         <v>4782</v>
@@ -20933,7 +20955,7 @@
         <v>39</v>
       </c>
       <c r="D292" s="1" t="s">
-        <v>1</v>
+        <v>2140</v>
       </c>
       <c r="G292" t="s">
         <v>4782</v>
@@ -20950,7 +20972,7 @@
         <v>39</v>
       </c>
       <c r="D293" s="1" t="s">
-        <v>1</v>
+        <v>5031</v>
       </c>
       <c r="G293" t="s">
         <v>4782</v>
@@ -20967,7 +20989,7 @@
         <v>39</v>
       </c>
       <c r="D294" s="1" t="s">
-        <v>1</v>
+        <v>2355</v>
       </c>
       <c r="G294" t="s">
         <v>4782</v>
@@ -20984,7 +21006,7 @@
         <v>39</v>
       </c>
       <c r="D295" s="1" t="s">
-        <v>1</v>
+        <v>2202</v>
       </c>
       <c r="G295" t="s">
         <v>4782</v>
@@ -21000,7 +21022,7 @@
       <c r="C296" t="s">
         <v>0</v>
       </c>
-      <c r="D296" s="1" t="s">
+      <c r="D296" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G296" t="s">
@@ -21017,7 +21039,7 @@
       <c r="C297" t="s">
         <v>0</v>
       </c>
-      <c r="D297" s="1" t="s">
+      <c r="D297" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G297" t="s">
@@ -21035,7 +21057,7 @@
         <v>0</v>
       </c>
       <c r="D298" s="1" t="s">
-        <v>1</v>
+        <v>2361</v>
       </c>
       <c r="G298" t="s">
         <v>4838</v>
@@ -21052,7 +21074,7 @@
         <v>0</v>
       </c>
       <c r="D299" s="1" t="s">
-        <v>1</v>
+        <v>2361</v>
       </c>
       <c r="G299" t="s">
         <v>4838</v>
@@ -21069,7 +21091,7 @@
         <v>0</v>
       </c>
       <c r="D300" s="1" t="s">
-        <v>1</v>
+        <v>2355</v>
       </c>
       <c r="G300" t="s">
         <v>4792</v>
@@ -21086,7 +21108,7 @@
         <v>39</v>
       </c>
       <c r="D301" s="1" t="s">
-        <v>1</v>
+        <v>2288</v>
       </c>
       <c r="G301" t="s">
         <v>4782</v>
@@ -21102,7 +21124,7 @@
       <c r="C302" t="s">
         <v>39</v>
       </c>
-      <c r="D302" s="1" t="s">
+      <c r="D302" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G302" t="s">
@@ -21120,7 +21142,7 @@
         <v>0</v>
       </c>
       <c r="D303" s="1" t="s">
-        <v>1</v>
+        <v>2297</v>
       </c>
       <c r="G303" t="s">
         <v>4756</v>
@@ -21137,7 +21159,7 @@
         <v>39</v>
       </c>
       <c r="D304" s="1" t="s">
-        <v>1</v>
+        <v>2297</v>
       </c>
       <c r="G304" t="s">
         <v>4782</v>
@@ -21154,7 +21176,7 @@
         <v>0</v>
       </c>
       <c r="D305" s="1" t="s">
-        <v>1</v>
+        <v>2297</v>
       </c>
       <c r="G305" t="s">
         <v>4787</v>
@@ -21170,7 +21192,7 @@
       <c r="C306" t="s">
         <v>0</v>
       </c>
-      <c r="D306" s="1" t="s">
+      <c r="D306" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G306" t="s">
@@ -21187,7 +21209,7 @@
       <c r="C307" t="s">
         <v>0</v>
       </c>
-      <c r="D307" s="1" t="s">
+      <c r="D307" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G307" t="s">
@@ -21204,7 +21226,7 @@
       <c r="C308" t="s">
         <v>0</v>
       </c>
-      <c r="D308" s="1" t="s">
+      <c r="D308" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G308" t="s">
@@ -21221,7 +21243,7 @@
       <c r="C309" t="s">
         <v>0</v>
       </c>
-      <c r="D309" s="1" t="s">
+      <c r="D309" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G309" t="s">
@@ -21239,7 +21261,7 @@
         <v>39</v>
       </c>
       <c r="D310" s="1" t="s">
-        <v>1</v>
+        <v>2411</v>
       </c>
       <c r="G310" t="s">
         <v>4782</v>
@@ -21256,7 +21278,7 @@
         <v>39</v>
       </c>
       <c r="D311" s="1" t="s">
-        <v>1</v>
+        <v>2448</v>
       </c>
       <c r="G311" t="s">
         <v>4782</v>
@@ -21273,7 +21295,7 @@
         <v>0</v>
       </c>
       <c r="D312" s="1" t="s">
-        <v>1</v>
+        <v>2410</v>
       </c>
       <c r="G312" t="s">
         <v>4842</v>
@@ -21290,7 +21312,7 @@
         <v>39</v>
       </c>
       <c r="D313" s="1" t="s">
-        <v>1</v>
+        <v>5032</v>
       </c>
       <c r="G313" t="s">
         <v>4782</v>
@@ -21307,7 +21329,7 @@
         <v>39</v>
       </c>
       <c r="D314" s="1" t="s">
-        <v>1</v>
+        <v>2449</v>
       </c>
       <c r="G314" t="s">
         <v>4782</v>
@@ -21324,7 +21346,7 @@
         <v>39</v>
       </c>
       <c r="D315" s="1" t="s">
-        <v>1</v>
+        <v>2394</v>
       </c>
       <c r="G315" t="s">
         <v>4782</v>
@@ -21341,7 +21363,7 @@
         <v>0</v>
       </c>
       <c r="D316" s="1" t="s">
-        <v>1</v>
+        <v>2451</v>
       </c>
       <c r="G316" t="s">
         <v>4837</v>
@@ -21358,7 +21380,7 @@
         <v>39</v>
       </c>
       <c r="D317" s="1" t="s">
-        <v>1</v>
+        <v>2451</v>
       </c>
       <c r="G317" t="s">
         <v>4837</v>
@@ -21375,7 +21397,7 @@
         <v>39</v>
       </c>
       <c r="D318" s="1" t="s">
-        <v>1</v>
+        <v>2453</v>
       </c>
       <c r="G318" t="s">
         <v>4782</v>
@@ -21392,7 +21414,7 @@
         <v>0</v>
       </c>
       <c r="D319" s="1" t="s">
-        <v>1</v>
+        <v>2842</v>
       </c>
       <c r="G319" t="s">
         <v>4838</v>
@@ -21408,7 +21430,7 @@
       <c r="C320" t="s">
         <v>275</v>
       </c>
-      <c r="D320" s="1" t="s">
+      <c r="D320" s="5" t="s">
         <v>1</v>
       </c>
     </row>
@@ -21422,7 +21444,7 @@
       <c r="C321" t="s">
         <v>932</v>
       </c>
-      <c r="D321" s="1" t="s">
+      <c r="D321" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G321" t="s">
@@ -21439,7 +21461,7 @@
       <c r="C322" t="s">
         <v>932</v>
       </c>
-      <c r="D322" s="1" t="s">
+      <c r="D322" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G322" t="s">
@@ -21457,7 +21479,7 @@
         <v>0</v>
       </c>
       <c r="D323" s="1" t="s">
-        <v>1</v>
+        <v>2556</v>
       </c>
       <c r="G323" t="s">
         <v>4767</v>
@@ -21474,7 +21496,7 @@
         <v>0</v>
       </c>
       <c r="D324" s="1" t="s">
-        <v>1</v>
+        <v>2841</v>
       </c>
       <c r="G324" t="s">
         <v>4756</v>
@@ -21491,7 +21513,7 @@
         <v>0</v>
       </c>
       <c r="D325" s="1" t="s">
-        <v>1</v>
+        <v>2842</v>
       </c>
       <c r="G325" t="s">
         <v>4797</v>
@@ -21508,7 +21530,7 @@
         <v>39</v>
       </c>
       <c r="D326" s="1" t="s">
-        <v>1</v>
+        <v>2842</v>
       </c>
       <c r="G326" t="s">
         <v>4797</v>
@@ -21524,7 +21546,7 @@
       <c r="C327" t="s">
         <v>0</v>
       </c>
-      <c r="D327" s="1" t="s">
+      <c r="D327" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G327" t="s">
@@ -21542,7 +21564,7 @@
         <v>0</v>
       </c>
       <c r="D328" s="1" t="s">
-        <v>1</v>
+        <v>2819</v>
       </c>
       <c r="G328" t="s">
         <v>4838</v>
@@ -21559,7 +21581,7 @@
         <v>0</v>
       </c>
       <c r="D329" s="1" t="s">
-        <v>1</v>
+        <v>2853</v>
       </c>
       <c r="G329" t="s">
         <v>4756</v>
@@ -21576,7 +21598,7 @@
         <v>0</v>
       </c>
       <c r="D330" s="1" t="s">
-        <v>1</v>
+        <v>2836</v>
       </c>
       <c r="G330" t="s">
         <v>4756</v>
@@ -21593,7 +21615,7 @@
         <v>0</v>
       </c>
       <c r="D331" s="1" t="s">
-        <v>1</v>
+        <v>2836</v>
       </c>
       <c r="G331" t="s">
         <v>4838</v>
@@ -21610,7 +21632,7 @@
         <v>0</v>
       </c>
       <c r="D332" s="1" t="s">
-        <v>1</v>
+        <v>2852</v>
       </c>
       <c r="G332" t="s">
         <v>4756</v>
@@ -21627,7 +21649,7 @@
         <v>39</v>
       </c>
       <c r="D333" s="1" t="s">
-        <v>1</v>
+        <v>2842</v>
       </c>
       <c r="G333" t="s">
         <v>4782</v>
@@ -21644,7 +21666,7 @@
         <v>39</v>
       </c>
       <c r="D334" s="1" t="s">
-        <v>1</v>
+        <v>5033</v>
       </c>
       <c r="G334" t="s">
         <v>4782</v>
@@ -22912,7 +22934,7 @@
       <c r="C409" t="s">
         <v>0</v>
       </c>
-      <c r="D409" s="1" t="s">
+      <c r="D409" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G409" t="s">
@@ -22949,7 +22971,7 @@
       <c r="C411" t="s">
         <v>0</v>
       </c>
-      <c r="D411" s="1" t="s">
+      <c r="D411" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G411" t="s">
@@ -22967,7 +22989,7 @@
         <v>0</v>
       </c>
       <c r="D412" s="1" t="s">
-        <v>1</v>
+        <v>4593</v>
       </c>
       <c r="G412" t="s">
         <v>4837</v>
@@ -22984,7 +23006,7 @@
         <v>39</v>
       </c>
       <c r="D413" s="1" t="s">
-        <v>1</v>
+        <v>4593</v>
       </c>
       <c r="G413" t="s">
         <v>4837</v>
@@ -23001,7 +23023,7 @@
         <v>0</v>
       </c>
       <c r="D414" s="1" t="s">
-        <v>1</v>
+        <v>5027</v>
       </c>
       <c r="G414" t="s">
         <v>4838</v>
@@ -23034,7 +23056,7 @@
       <c r="C416" t="s">
         <v>0</v>
       </c>
-      <c r="D416" s="1" t="s">
+      <c r="D416" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G416" t="s">
@@ -23102,7 +23124,7 @@
       <c r="C420" t="s">
         <v>0</v>
       </c>
-      <c r="D420" s="1" t="s">
+      <c r="D420" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G420" t="s">
@@ -23120,7 +23142,7 @@
         <v>0</v>
       </c>
       <c r="D421" s="1" t="s">
-        <v>1</v>
+        <v>3303</v>
       </c>
     </row>
     <row r="422" spans="1:7">
@@ -23419,7 +23441,7 @@
       <c r="C439" t="s">
         <v>39</v>
       </c>
-      <c r="D439" s="1" t="s">
+      <c r="D439" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G439" t="s">
@@ -23453,6 +23475,9 @@
       <c r="C441" t="s">
         <v>0</v>
       </c>
+      <c r="D441" s="5" t="s">
+        <v>4616</v>
+      </c>
     </row>
     <row r="442" spans="1:7">
       <c r="A442">
@@ -23532,9 +23557,7 @@
       <c r="C446" t="s">
         <v>39</v>
       </c>
-      <c r="D446" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="D446" s="5"/>
       <c r="G446" t="s">
         <v>4782</v>
       </c>
@@ -24210,7 +24233,7 @@
         <v>0</v>
       </c>
       <c r="D486" s="1" t="s">
-        <v>1</v>
+        <v>3806</v>
       </c>
       <c r="G486" t="s">
         <v>4756</v>
@@ -24227,7 +24250,7 @@
         <v>0</v>
       </c>
       <c r="D487" s="1" t="s">
-        <v>1</v>
+        <v>3762</v>
       </c>
       <c r="G487" t="s">
         <v>4756</v>
@@ -24244,7 +24267,7 @@
         <v>0</v>
       </c>
       <c r="D488" s="1" t="s">
-        <v>1</v>
+        <v>3807</v>
       </c>
       <c r="G488" t="s">
         <v>4756</v>
@@ -24260,7 +24283,7 @@
       <c r="C489" t="s">
         <v>2</v>
       </c>
-      <c r="D489" s="1" t="s">
+      <c r="D489" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G489" t="s">
@@ -24278,7 +24301,7 @@
         <v>39</v>
       </c>
       <c r="D490" s="1" t="s">
-        <v>1</v>
+        <v>3786</v>
       </c>
       <c r="G490" t="s">
         <v>4782</v>
@@ -24294,7 +24317,7 @@
       <c r="C491" t="s">
         <v>0</v>
       </c>
-      <c r="D491" s="1" t="s">
+      <c r="D491" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G491" t="s">
@@ -24311,7 +24334,7 @@
       <c r="C492" t="s">
         <v>0</v>
       </c>
-      <c r="D492" s="1" t="s">
+      <c r="D492" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G492" t="s">
@@ -24328,8 +24351,8 @@
       <c r="C493" t="s">
         <v>2</v>
       </c>
-      <c r="D493" s="1" t="s">
-        <v>1</v>
+      <c r="D493" s="5" t="s">
+        <v>3763</v>
       </c>
     </row>
     <row r="494" spans="1:7">
@@ -24360,7 +24383,7 @@
         <v>39</v>
       </c>
       <c r="D495" s="1" t="s">
-        <v>1</v>
+        <v>3291</v>
       </c>
       <c r="G495" t="s">
         <v>4782</v>
@@ -24376,7 +24399,7 @@
       <c r="C496" t="s">
         <v>2</v>
       </c>
-      <c r="D496" s="1" t="s">
+      <c r="D496" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G496" t="s">
@@ -24393,7 +24416,7 @@
       <c r="C497" t="s">
         <v>2</v>
       </c>
-      <c r="D497" s="1" t="s">
+      <c r="D497" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G497" t="s">
@@ -24410,7 +24433,7 @@
       <c r="C498" t="s">
         <v>0</v>
       </c>
-      <c r="D498" s="1" t="s">
+      <c r="D498" s="5" t="s">
         <v>1</v>
       </c>
     </row>
@@ -25547,7 +25570,7 @@
       <c r="C564" t="s">
         <v>0</v>
       </c>
-      <c r="D564" s="1" t="s">
+      <c r="D564" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G564" t="s">

--- a/lemmatizer/lemma_list.xlsx
+++ b/lemmatizer/lemma_list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25915"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21540" windowHeight="12320"/>
+    <workbookView xWindow="1940" yWindow="120" windowWidth="21540" windowHeight="12320"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19643" uniqueCount="5034">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19646" uniqueCount="5039">
   <si>
     <t>V</t>
   </si>
@@ -15020,9 +15020,6 @@
     <t xml:space="preserve">ⲛⲟⲩϩⲙ </t>
   </si>
   <si>
-    <t>ⲁⲗⲉ? Ⲗⲟ?</t>
-  </si>
-  <si>
     <t>ⲁⲥⲁⲓ</t>
   </si>
   <si>
@@ -15123,13 +15120,31 @@
   </si>
   <si>
     <t>ⲙⲟⲩⲛ</t>
+  </si>
+  <si>
+    <t>ϭⲛⲑⲉ</t>
+  </si>
+  <si>
+    <t>ⲃⲱⲱⲛ</t>
+  </si>
+  <si>
+    <t>ⲛⲥⲁⲃⲟⲗ</t>
+  </si>
+  <si>
+    <t>ⲣⲑⲉ</t>
+  </si>
+  <si>
+    <t>ⲧⲱⲙⲣⲟ</t>
+  </si>
+  <si>
+    <t>ⲧⲟⲩⲛⲉⲓⲁ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -15180,6 +15195,11 @@
     <font>
       <sz val="11"/>
       <name val="Antinoou"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -15270,7 +15290,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -15279,6 +15299,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="63">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -15645,8 +15667,8 @@
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:H5245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A140" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D157" sqref="D157"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D567" sqref="D567"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -18437,7 +18459,7 @@
       <c r="C143" t="s">
         <v>0</v>
       </c>
-      <c r="D143" s="5" t="s">
+      <c r="D143" s="6" t="s">
         <v>660</v>
       </c>
       <c r="G143" t="s">
@@ -18508,8 +18530,8 @@
       <c r="C147" t="s">
         <v>39</v>
       </c>
-      <c r="D147" s="5" t="s">
-        <v>660</v>
+      <c r="D147" s="6" t="s">
+        <v>677</v>
       </c>
       <c r="G147" t="s">
         <v>4782</v>
@@ -18576,7 +18598,7 @@
       <c r="C151" t="s">
         <v>0</v>
       </c>
-      <c r="D151" s="5" t="s">
+      <c r="D151" s="6" t="s">
         <v>660</v>
       </c>
     </row>
@@ -18746,7 +18768,7 @@
       <c r="C161" t="s">
         <v>0</v>
       </c>
-      <c r="D161" s="5" t="s">
+      <c r="D161" s="6" t="s">
         <v>756</v>
       </c>
       <c r="G161" t="s">
@@ -19219,8 +19241,8 @@
       <c r="C189" t="s">
         <v>0</v>
       </c>
-      <c r="D189" s="5" t="s">
-        <v>1</v>
+      <c r="D189" s="6" t="s">
+        <v>791</v>
       </c>
       <c r="G189" t="s">
         <v>4756</v>
@@ -19253,8 +19275,8 @@
       <c r="C191" t="s">
         <v>0</v>
       </c>
-      <c r="D191" s="5" t="s">
-        <v>791</v>
+      <c r="D191" s="6" t="s">
+        <v>5033</v>
       </c>
       <c r="G191" t="s">
         <v>4756</v>
@@ -19270,8 +19292,8 @@
       <c r="C192" t="s">
         <v>0</v>
       </c>
-      <c r="D192" s="5" t="s">
-        <v>791</v>
+      <c r="D192" s="6" t="s">
+        <v>5033</v>
       </c>
       <c r="G192" t="s">
         <v>4756</v>
@@ -19287,8 +19309,8 @@
       <c r="C193" t="s">
         <v>0</v>
       </c>
-      <c r="D193" s="5" t="s">
-        <v>1</v>
+      <c r="D193" s="6" t="s">
+        <v>822</v>
       </c>
       <c r="G193" t="s">
         <v>4838</v>
@@ -19491,8 +19513,8 @@
       <c r="C205" t="s">
         <v>0</v>
       </c>
-      <c r="D205" s="5" t="s">
-        <v>869</v>
+      <c r="D205" s="6" t="s">
+        <v>872</v>
       </c>
       <c r="G205" t="s">
         <v>4838</v>
@@ -19508,8 +19530,8 @@
       <c r="C206" t="s">
         <v>0</v>
       </c>
-      <c r="D206" s="5" t="s">
-        <v>869</v>
+      <c r="D206" s="6" t="s">
+        <v>895</v>
       </c>
       <c r="G206" t="s">
         <v>4756</v>
@@ -19525,8 +19547,8 @@
       <c r="C207" t="s">
         <v>0</v>
       </c>
-      <c r="D207" s="5" t="s">
-        <v>869</v>
+      <c r="D207" s="6" t="s">
+        <v>908</v>
       </c>
       <c r="G207" t="s">
         <v>4838</v>
@@ -19542,8 +19564,8 @@
       <c r="C208" t="s">
         <v>0</v>
       </c>
-      <c r="D208" s="5" t="s">
-        <v>869</v>
+      <c r="D208" s="6" t="s">
+        <v>908</v>
       </c>
       <c r="G208" t="s">
         <v>4838</v>
@@ -19678,7 +19700,7 @@
       <c r="C216" t="s">
         <v>0</v>
       </c>
-      <c r="D216" s="5" t="s">
+      <c r="D216" s="6" t="s">
         <v>1613</v>
       </c>
       <c r="G216" t="s">
@@ -19713,7 +19735,7 @@
         <v>932</v>
       </c>
       <c r="D218" s="5" t="s">
-        <v>4999</v>
+        <v>1021</v>
       </c>
       <c r="G218" t="s">
         <v>4847</v>
@@ -19831,7 +19853,7 @@
       <c r="C225" t="s">
         <v>932</v>
       </c>
-      <c r="D225" s="5" t="s">
+      <c r="D225" s="6" t="s">
         <v>1585</v>
       </c>
       <c r="G225" t="s">
@@ -19900,7 +19922,7 @@
         <v>39</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>5000</v>
+        <v>4999</v>
       </c>
       <c r="G229" t="s">
         <v>4782</v>
@@ -19917,7 +19939,7 @@
         <v>0</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>5001</v>
+        <v>5000</v>
       </c>
       <c r="G230" t="s">
         <v>4838</v>
@@ -19951,7 +19973,7 @@
         <v>0</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>5002</v>
+        <v>5001</v>
       </c>
       <c r="G232" t="s">
         <v>4756</v>
@@ -20002,7 +20024,7 @@
         <v>39</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>5002</v>
+        <v>5001</v>
       </c>
       <c r="G235" t="s">
         <v>4782</v>
@@ -20035,7 +20057,7 @@
       <c r="C237" t="s">
         <v>0</v>
       </c>
-      <c r="D237" s="5" t="s">
+      <c r="D237" s="6" t="s">
         <v>228</v>
       </c>
       <c r="G237" t="s">
@@ -20066,10 +20088,12 @@
       <c r="B239" s="1" t="s">
         <v>4611</v>
       </c>
-      <c r="C239" t="s">
-        <v>0</v>
-      </c>
-      <c r="D239" s="5"/>
+      <c r="C239" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D239" s="6" t="s">
+        <v>5034</v>
+      </c>
     </row>
     <row r="240" spans="1:7">
       <c r="A240">
@@ -20099,7 +20123,7 @@
         <v>0</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>5002</v>
+        <v>5001</v>
       </c>
       <c r="G241" t="s">
         <v>4838</v>
@@ -20183,8 +20207,8 @@
       <c r="C246" t="s">
         <v>0</v>
       </c>
-      <c r="D246" s="5" t="s">
-        <v>1</v>
+      <c r="D246" s="6" t="s">
+        <v>4996</v>
       </c>
       <c r="G246" t="s">
         <v>4756</v>
@@ -20251,8 +20275,8 @@
       <c r="C250" t="s">
         <v>24</v>
       </c>
-      <c r="D250" s="5" t="s">
-        <v>1</v>
+      <c r="D250" s="6" t="s">
+        <v>1552</v>
       </c>
       <c r="G250" t="s">
         <v>4824</v>
@@ -20350,8 +20374,8 @@
       <c r="C256" t="s">
         <v>0</v>
       </c>
-      <c r="D256" s="5" t="s">
-        <v>1</v>
+      <c r="D256" s="6" t="s">
+        <v>1690</v>
       </c>
     </row>
     <row r="257" spans="1:7">
@@ -20395,8 +20419,8 @@
       <c r="C259" t="s">
         <v>0</v>
       </c>
-      <c r="D259" s="5" t="s">
-        <v>1</v>
+      <c r="D259" s="6" t="s">
+        <v>3663</v>
       </c>
       <c r="G259" t="s">
         <v>4838</v>
@@ -20429,8 +20453,8 @@
       <c r="C261" t="s">
         <v>0</v>
       </c>
-      <c r="D261" s="5" t="s">
-        <v>1</v>
+      <c r="D261" s="6" t="s">
+        <v>5013</v>
       </c>
       <c r="G261" t="s">
         <v>4838</v>
@@ -20446,8 +20470,8 @@
       <c r="C262" t="s">
         <v>0</v>
       </c>
-      <c r="D262" s="5" t="s">
-        <v>1</v>
+      <c r="D262" s="6" t="s">
+        <v>5013</v>
       </c>
       <c r="G262" t="s">
         <v>4838</v>
@@ -20498,7 +20522,7 @@
         <v>0</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>5027</v>
+        <v>5026</v>
       </c>
       <c r="G265" t="s">
         <v>4756</v>
@@ -20514,7 +20538,9 @@
       <c r="C266" t="s">
         <v>24</v>
       </c>
-      <c r="D266" s="5"/>
+      <c r="D266" s="6" t="s">
+        <v>1525</v>
+      </c>
       <c r="G266" t="s">
         <v>4824</v>
       </c>
@@ -20529,8 +20555,8 @@
       <c r="C267" t="s">
         <v>24</v>
       </c>
-      <c r="D267" s="5" t="s">
-        <v>1</v>
+      <c r="D267" s="6" t="s">
+        <v>1525</v>
       </c>
       <c r="G267" t="s">
         <v>4824</v>
@@ -20598,7 +20624,7 @@
         <v>24</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>5028</v>
+        <v>5027</v>
       </c>
       <c r="G271" t="s">
         <v>4824</v>
@@ -20717,7 +20743,7 @@
         <v>0</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="G278" t="s">
         <v>4838</v>
@@ -20734,7 +20760,7 @@
         <v>0</v>
       </c>
       <c r="D279" s="1" t="s">
-        <v>5030</v>
+        <v>5029</v>
       </c>
       <c r="G279" t="s">
         <v>4787</v>
@@ -20784,8 +20810,8 @@
       <c r="C282" t="s">
         <v>0</v>
       </c>
-      <c r="D282" s="5" t="s">
-        <v>1</v>
+      <c r="D282" s="6" t="s">
+        <v>2018</v>
       </c>
       <c r="G282" t="s">
         <v>4838</v>
@@ -20818,8 +20844,8 @@
       <c r="C284" t="s">
         <v>0</v>
       </c>
-      <c r="D284" s="5" t="s">
-        <v>1</v>
+      <c r="D284" s="6" t="s">
+        <v>2073</v>
       </c>
       <c r="G284" t="s">
         <v>4838</v>
@@ -20835,7 +20861,7 @@
       <c r="C285" t="s">
         <v>0</v>
       </c>
-      <c r="D285" s="5" t="s">
+      <c r="D285" s="6" t="s">
         <v>3785</v>
       </c>
       <c r="G285" t="s">
@@ -20886,8 +20912,8 @@
       <c r="C288" t="s">
         <v>0</v>
       </c>
-      <c r="D288" s="5" t="s">
-        <v>1</v>
+      <c r="D288" s="6" t="s">
+        <v>2132</v>
       </c>
       <c r="G288" t="s">
         <v>4756</v>
@@ -20972,7 +20998,7 @@
         <v>39</v>
       </c>
       <c r="D293" s="1" t="s">
-        <v>5031</v>
+        <v>5030</v>
       </c>
       <c r="G293" t="s">
         <v>4782</v>
@@ -21022,8 +21048,8 @@
       <c r="C296" t="s">
         <v>0</v>
       </c>
-      <c r="D296" s="5" t="s">
-        <v>1</v>
+      <c r="D296" s="6" t="s">
+        <v>2331</v>
       </c>
       <c r="G296" t="s">
         <v>4838</v>
@@ -21192,8 +21218,8 @@
       <c r="C306" t="s">
         <v>0</v>
       </c>
-      <c r="D306" s="5" t="s">
-        <v>1</v>
+      <c r="D306" s="6" t="s">
+        <v>2297</v>
       </c>
       <c r="G306" t="s">
         <v>4838</v>
@@ -21209,8 +21235,8 @@
       <c r="C307" t="s">
         <v>0</v>
       </c>
-      <c r="D307" s="5" t="s">
-        <v>1</v>
+      <c r="D307" s="6" t="s">
+        <v>2338</v>
       </c>
       <c r="G307" t="s">
         <v>4838</v>
@@ -21226,8 +21252,8 @@
       <c r="C308" t="s">
         <v>0</v>
       </c>
-      <c r="D308" s="5" t="s">
-        <v>1</v>
+      <c r="D308" s="6" t="s">
+        <v>2341</v>
       </c>
       <c r="G308" t="s">
         <v>4838</v>
@@ -21243,8 +21269,8 @@
       <c r="C309" t="s">
         <v>0</v>
       </c>
-      <c r="D309" s="5" t="s">
-        <v>1</v>
+      <c r="D309" s="6" t="s">
+        <v>2343</v>
       </c>
       <c r="G309" t="s">
         <v>4838</v>
@@ -21312,7 +21338,7 @@
         <v>39</v>
       </c>
       <c r="D313" s="1" t="s">
-        <v>5032</v>
+        <v>5031</v>
       </c>
       <c r="G313" t="s">
         <v>4782</v>
@@ -21444,8 +21470,8 @@
       <c r="C321" t="s">
         <v>932</v>
       </c>
-      <c r="D321" s="5" t="s">
-        <v>1</v>
+      <c r="D321" s="6" t="s">
+        <v>4224</v>
       </c>
       <c r="G321" t="s">
         <v>4847</v>
@@ -21461,8 +21487,8 @@
       <c r="C322" t="s">
         <v>932</v>
       </c>
-      <c r="D322" s="5" t="s">
-        <v>1</v>
+      <c r="D322" s="6" t="s">
+        <v>4371</v>
       </c>
       <c r="G322" t="s">
         <v>4847</v>
@@ -21666,7 +21692,7 @@
         <v>39</v>
       </c>
       <c r="D334" s="1" t="s">
-        <v>5033</v>
+        <v>5032</v>
       </c>
       <c r="G334" t="s">
         <v>4782</v>
@@ -21750,8 +21776,8 @@
       <c r="C339" t="s">
         <v>24</v>
       </c>
-      <c r="D339" s="5" t="s">
-        <v>1</v>
+      <c r="D339" s="6" t="s">
+        <v>2915</v>
       </c>
       <c r="G339" t="s">
         <v>4824</v>
@@ -21785,7 +21811,7 @@
         <v>0</v>
       </c>
       <c r="D341" s="1" t="s">
-        <v>5026</v>
+        <v>5025</v>
       </c>
       <c r="G341" t="s">
         <v>4837</v>
@@ -21802,7 +21828,7 @@
         <v>39</v>
       </c>
       <c r="D342" s="1" t="s">
-        <v>5026</v>
+        <v>5025</v>
       </c>
       <c r="G342" t="s">
         <v>4837</v>
@@ -21819,7 +21845,7 @@
         <v>39</v>
       </c>
       <c r="D343" s="1" t="s">
-        <v>5026</v>
+        <v>5025</v>
       </c>
       <c r="G343" t="s">
         <v>4782</v>
@@ -21852,8 +21878,8 @@
       <c r="C345" t="s">
         <v>39</v>
       </c>
-      <c r="D345" s="5" t="s">
-        <v>1</v>
+      <c r="D345" s="6" t="s">
+        <v>2814</v>
       </c>
       <c r="G345" t="s">
         <v>4782</v>
@@ -21869,8 +21895,8 @@
       <c r="C346" t="s">
         <v>39</v>
       </c>
-      <c r="D346" s="5" t="s">
-        <v>1</v>
+      <c r="D346" s="6" t="s">
+        <v>2814</v>
       </c>
       <c r="G346" t="s">
         <v>4782</v>
@@ -22056,8 +22082,8 @@
       <c r="C357" t="s">
         <v>24</v>
       </c>
-      <c r="D357" s="5" t="s">
-        <v>1</v>
+      <c r="D357" s="6" t="s">
+        <v>2866</v>
       </c>
       <c r="G357" t="s">
         <v>4824</v>
@@ -22240,7 +22266,7 @@
       <c r="C368" t="s">
         <v>0</v>
       </c>
-      <c r="D368" s="5" t="s">
+      <c r="D368" s="6" t="s">
         <v>3084</v>
       </c>
       <c r="G368" t="s">
@@ -22257,7 +22283,7 @@
       <c r="C369" t="s">
         <v>0</v>
       </c>
-      <c r="D369" s="5" t="s">
+      <c r="D369" s="6" t="s">
         <v>3084</v>
       </c>
       <c r="G369" t="s">
@@ -22291,7 +22317,7 @@
       <c r="C371" t="s">
         <v>0</v>
       </c>
-      <c r="D371" s="5" t="s">
+      <c r="D371" s="6" t="s">
         <v>2948</v>
       </c>
       <c r="G371" t="s">
@@ -22493,7 +22519,7 @@
         <v>24</v>
       </c>
       <c r="D383" s="1" t="s">
-        <v>5003</v>
+        <v>5002</v>
       </c>
       <c r="G383" t="s">
         <v>4824</v>
@@ -22510,7 +22536,7 @@
         <v>24</v>
       </c>
       <c r="D384" s="1" t="s">
-        <v>5003</v>
+        <v>5002</v>
       </c>
       <c r="G384" t="s">
         <v>4824</v>
@@ -22628,8 +22654,8 @@
       <c r="C391" t="s">
         <v>24</v>
       </c>
-      <c r="D391" s="5" t="s">
-        <v>1</v>
+      <c r="D391" s="6" t="s">
+        <v>5035</v>
       </c>
       <c r="G391" t="s">
         <v>4824</v>
@@ -22748,7 +22774,7 @@
         <v>0</v>
       </c>
       <c r="D398" s="6" t="s">
-        <v>5004</v>
+        <v>5003</v>
       </c>
       <c r="G398" t="s">
         <v>4838</v>
@@ -22782,7 +22808,7 @@
         <v>39</v>
       </c>
       <c r="D400" s="1" t="s">
-        <v>5005</v>
+        <v>5004</v>
       </c>
       <c r="G400" t="s">
         <v>4782</v>
@@ -22799,7 +22825,7 @@
         <v>0</v>
       </c>
       <c r="D401" s="1" t="s">
-        <v>5006</v>
+        <v>5005</v>
       </c>
       <c r="G401" t="s">
         <v>4838</v>
@@ -22901,7 +22927,7 @@
         <v>0</v>
       </c>
       <c r="D407" s="1" t="s">
-        <v>5007</v>
+        <v>5006</v>
       </c>
       <c r="G407" t="s">
         <v>4838</v>
@@ -22934,8 +22960,8 @@
       <c r="C409" t="s">
         <v>0</v>
       </c>
-      <c r="D409" s="5" t="s">
-        <v>1</v>
+      <c r="D409" s="6" t="s">
+        <v>4587</v>
       </c>
       <c r="G409" t="s">
         <v>4838</v>
@@ -23023,7 +23049,7 @@
         <v>0</v>
       </c>
       <c r="D414" s="1" t="s">
-        <v>5027</v>
+        <v>5026</v>
       </c>
       <c r="G414" t="s">
         <v>4838</v>
@@ -23090,8 +23116,8 @@
       <c r="C418" t="s">
         <v>0</v>
       </c>
-      <c r="D418" s="5" t="s">
-        <v>1</v>
+      <c r="D418" s="6" t="s">
+        <v>3296</v>
       </c>
       <c r="G418" t="s">
         <v>4838</v>
@@ -23156,7 +23182,7 @@
         <v>39</v>
       </c>
       <c r="D422" s="1" t="s">
-        <v>5009</v>
+        <v>5008</v>
       </c>
       <c r="G422" t="s">
         <v>4782</v>
@@ -23425,7 +23451,7 @@
         <v>39</v>
       </c>
       <c r="D438" s="1" t="s">
-        <v>5010</v>
+        <v>5009</v>
       </c>
       <c r="G438" t="s">
         <v>4782</v>
@@ -23438,11 +23464,11 @@
       <c r="B439" s="1" t="s">
         <v>3264</v>
       </c>
-      <c r="C439" t="s">
+      <c r="C439" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D439" s="5" t="s">
-        <v>1</v>
+      <c r="D439" s="6" t="s">
+        <v>3264</v>
       </c>
       <c r="G439" t="s">
         <v>4782</v>
@@ -23472,10 +23498,10 @@
       <c r="B441" s="1" t="s">
         <v>4616</v>
       </c>
-      <c r="C441" t="s">
-        <v>0</v>
-      </c>
-      <c r="D441" s="5" t="s">
+      <c r="C441" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D441" s="6" t="s">
         <v>4616</v>
       </c>
     </row>
@@ -23554,10 +23580,12 @@
       <c r="B446" s="1" t="s">
         <v>3283</v>
       </c>
-      <c r="C446" t="s">
+      <c r="C446" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D446" s="5"/>
+      <c r="D446" s="6" t="s">
+        <v>3283</v>
+      </c>
       <c r="G446" t="s">
         <v>4782</v>
       </c>
@@ -23573,7 +23601,7 @@
         <v>39</v>
       </c>
       <c r="D447" s="1" t="s">
-        <v>5011</v>
+        <v>5010</v>
       </c>
       <c r="G447" t="s">
         <v>4782</v>
@@ -23590,7 +23618,7 @@
         <v>39</v>
       </c>
       <c r="D448" s="1" t="s">
-        <v>5012</v>
+        <v>5011</v>
       </c>
       <c r="G448" t="s">
         <v>4782</v>
@@ -23658,7 +23686,7 @@
         <v>0</v>
       </c>
       <c r="D452" s="1" t="s">
-        <v>5013</v>
+        <v>5012</v>
       </c>
       <c r="G452" t="s">
         <v>4838</v>
@@ -23947,7 +23975,7 @@
         <v>39</v>
       </c>
       <c r="D469" s="1" t="s">
-        <v>5013</v>
+        <v>5012</v>
       </c>
       <c r="G469" t="s">
         <v>4782</v>
@@ -24034,8 +24062,8 @@
       <c r="C474" t="s">
         <v>0</v>
       </c>
-      <c r="D474" s="5" t="s">
-        <v>1613</v>
+      <c r="D474" s="6" t="s">
+        <v>3656</v>
       </c>
       <c r="G474" t="s">
         <v>4756</v>
@@ -24051,8 +24079,8 @@
       <c r="C475" t="s">
         <v>0</v>
       </c>
-      <c r="D475" s="5" t="s">
-        <v>1613</v>
+      <c r="D475" s="6" t="s">
+        <v>4623</v>
       </c>
     </row>
     <row r="476" spans="1:7">
@@ -24065,8 +24093,8 @@
       <c r="C476" t="s">
         <v>0</v>
       </c>
-      <c r="D476" s="5" t="s">
-        <v>1613</v>
+      <c r="D476" s="6" t="s">
+        <v>3660</v>
       </c>
       <c r="G476" t="s">
         <v>4756</v>
@@ -24082,8 +24110,8 @@
       <c r="C477" t="s">
         <v>0</v>
       </c>
-      <c r="D477" s="5" t="s">
-        <v>1613</v>
+      <c r="D477" s="6" t="s">
+        <v>3663</v>
       </c>
       <c r="G477" t="s">
         <v>4838</v>
@@ -24099,8 +24127,8 @@
       <c r="C478" t="s">
         <v>0</v>
       </c>
-      <c r="D478" s="5" t="s">
-        <v>1613</v>
+      <c r="D478" s="6" t="s">
+        <v>4610</v>
       </c>
     </row>
     <row r="479" spans="1:7">
@@ -24165,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="D482" s="1" t="s">
-        <v>5014</v>
+        <v>5013</v>
       </c>
       <c r="G482" t="s">
         <v>4838</v>
@@ -24199,7 +24227,7 @@
         <v>0</v>
       </c>
       <c r="D484" s="1" t="s">
-        <v>5015</v>
+        <v>5014</v>
       </c>
       <c r="G484" t="s">
         <v>4756</v>
@@ -24215,8 +24243,8 @@
       <c r="C485" t="s">
         <v>2</v>
       </c>
-      <c r="D485" s="5" t="s">
-        <v>1</v>
+      <c r="D485" s="6" t="s">
+        <v>3736</v>
       </c>
       <c r="G485" t="s">
         <v>4746</v>
@@ -24283,8 +24311,8 @@
       <c r="C489" t="s">
         <v>2</v>
       </c>
-      <c r="D489" s="5" t="s">
-        <v>1</v>
+      <c r="D489" s="6" t="s">
+        <v>3754</v>
       </c>
       <c r="G489" t="s">
         <v>4768</v>
@@ -24317,8 +24345,8 @@
       <c r="C491" t="s">
         <v>0</v>
       </c>
-      <c r="D491" s="5" t="s">
-        <v>1</v>
+      <c r="D491" s="6" t="s">
+        <v>5036</v>
       </c>
       <c r="G491" t="s">
         <v>4756</v>
@@ -24334,8 +24362,8 @@
       <c r="C492" t="s">
         <v>0</v>
       </c>
-      <c r="D492" s="5" t="s">
-        <v>1</v>
+      <c r="D492" s="6" t="s">
+        <v>5036</v>
       </c>
       <c r="G492" t="s">
         <v>4756</v>
@@ -24399,8 +24427,8 @@
       <c r="C496" t="s">
         <v>2</v>
       </c>
-      <c r="D496" s="5" t="s">
-        <v>1</v>
+      <c r="D496" s="6" t="s">
+        <v>3796</v>
       </c>
       <c r="G496" t="s">
         <v>4768</v>
@@ -24416,8 +24444,8 @@
       <c r="C497" t="s">
         <v>2</v>
       </c>
-      <c r="D497" s="5" t="s">
-        <v>1</v>
+      <c r="D497" s="6" t="s">
+        <v>3801</v>
       </c>
       <c r="G497" t="s">
         <v>4768</v>
@@ -24433,8 +24461,8 @@
       <c r="C498" t="s">
         <v>0</v>
       </c>
-      <c r="D498" s="5" t="s">
-        <v>1</v>
+      <c r="D498" s="6" t="s">
+        <v>4625</v>
       </c>
     </row>
     <row r="499" spans="1:7">
@@ -24658,7 +24686,7 @@
         <v>0</v>
       </c>
       <c r="D511" s="1" t="s">
-        <v>5016</v>
+        <v>5015</v>
       </c>
       <c r="G511" t="s">
         <v>4838</v>
@@ -24825,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="D521" s="1" t="s">
-        <v>5017</v>
+        <v>5016</v>
       </c>
       <c r="G521" t="s">
         <v>4756</v>
@@ -24842,7 +24870,7 @@
         <v>0</v>
       </c>
       <c r="D522" s="1" t="s">
-        <v>5017</v>
+        <v>5016</v>
       </c>
       <c r="G522" t="s">
         <v>4838</v>
@@ -24859,7 +24887,7 @@
         <v>0</v>
       </c>
       <c r="D523" s="1" t="s">
-        <v>5017</v>
+        <v>5016</v>
       </c>
       <c r="G523" t="s">
         <v>4838</v>
@@ -24953,7 +24981,7 @@
         <v>39</v>
       </c>
       <c r="D528" s="1" t="s">
-        <v>5018</v>
+        <v>5017</v>
       </c>
       <c r="G528" t="s">
         <v>4782</v>
@@ -25193,8 +25221,8 @@
       <c r="C542" t="s">
         <v>0</v>
       </c>
-      <c r="D542" s="5" t="s">
-        <v>1</v>
+      <c r="D542" s="6" t="s">
+        <v>4126</v>
       </c>
       <c r="G542" t="s">
         <v>4838</v>
@@ -25278,8 +25306,8 @@
       <c r="C547" t="s">
         <v>0</v>
       </c>
-      <c r="D547" s="5" t="s">
-        <v>1</v>
+      <c r="D547" s="6" t="s">
+        <v>4148</v>
       </c>
       <c r="G547" t="s">
         <v>4838</v>
@@ -25394,8 +25422,8 @@
       <c r="C554" t="s">
         <v>39</v>
       </c>
-      <c r="D554" s="5" t="s">
-        <v>1</v>
+      <c r="D554" s="6" t="s">
+        <v>3993</v>
       </c>
       <c r="G554" t="s">
         <v>4782</v>
@@ -25411,8 +25439,8 @@
       <c r="C555" t="s">
         <v>0</v>
       </c>
-      <c r="D555" s="5" t="s">
-        <v>1</v>
+      <c r="D555" s="6" t="s">
+        <v>3994</v>
       </c>
       <c r="G555" t="s">
         <v>4838</v>
@@ -25446,7 +25474,7 @@
         <v>0</v>
       </c>
       <c r="D557" s="1" t="s">
-        <v>5016</v>
+        <v>5015</v>
       </c>
       <c r="G557" t="s">
         <v>4838</v>
@@ -25479,7 +25507,7 @@
       <c r="C559" t="s">
         <v>0</v>
       </c>
-      <c r="D559" s="5" t="s">
+      <c r="D559" s="6" t="s">
         <v>4160</v>
       </c>
       <c r="G559" t="s">
@@ -25496,7 +25524,7 @@
       <c r="C560" t="s">
         <v>0</v>
       </c>
-      <c r="D560" s="5" t="s">
+      <c r="D560" s="6" t="s">
         <v>4160</v>
       </c>
       <c r="G560" t="s">
@@ -25513,7 +25541,7 @@
       <c r="C561" t="s">
         <v>0</v>
       </c>
-      <c r="D561" s="5" t="s">
+      <c r="D561" s="6" t="s">
         <v>4160</v>
       </c>
       <c r="G561" t="s">
@@ -25588,7 +25616,7 @@
         <v>39</v>
       </c>
       <c r="D565" s="1" t="s">
-        <v>5008</v>
+        <v>5007</v>
       </c>
       <c r="G565" t="s">
         <v>4782</v>
@@ -25621,7 +25649,7 @@
       <c r="C567" t="s">
         <v>0</v>
       </c>
-      <c r="D567" s="5" t="s">
+      <c r="D567" s="6" t="s">
         <v>3996</v>
       </c>
       <c r="G567" t="s">
@@ -25707,7 +25735,7 @@
         <v>0</v>
       </c>
       <c r="D572" s="1" t="s">
-        <v>5017</v>
+        <v>5016</v>
       </c>
       <c r="G572" t="s">
         <v>4838</v>
@@ -25724,7 +25752,7 @@
         <v>0</v>
       </c>
       <c r="D573" s="1" t="s">
-        <v>5017</v>
+        <v>5016</v>
       </c>
       <c r="G573" t="s">
         <v>4838</v>
@@ -25741,7 +25769,7 @@
         <v>0</v>
       </c>
       <c r="D574" s="1" t="s">
-        <v>5019</v>
+        <v>5018</v>
       </c>
     </row>
     <row r="575" spans="1:7">
@@ -25755,7 +25783,7 @@
         <v>0</v>
       </c>
       <c r="D575" s="1" t="s">
-        <v>5020</v>
+        <v>5019</v>
       </c>
     </row>
     <row r="576" spans="1:7">
@@ -25983,7 +26011,7 @@
       <c r="C589" t="s">
         <v>0</v>
       </c>
-      <c r="D589" s="5" t="s">
+      <c r="D589" s="6" t="s">
         <v>4418</v>
       </c>
       <c r="G589" t="s">
@@ -26000,7 +26028,7 @@
       <c r="C590" t="s">
         <v>39</v>
       </c>
-      <c r="D590" s="5" t="s">
+      <c r="D590" s="6" t="s">
         <v>4418</v>
       </c>
       <c r="G590" t="s">
@@ -26035,7 +26063,7 @@
         <v>0</v>
       </c>
       <c r="D592" s="1" t="s">
-        <v>5021</v>
+        <v>5020</v>
       </c>
       <c r="G592" t="s">
         <v>4838</v>
@@ -26085,8 +26113,8 @@
       <c r="C595" t="s">
         <v>39</v>
       </c>
-      <c r="D595" s="5" t="s">
-        <v>1</v>
+      <c r="D595" s="6" t="s">
+        <v>4185</v>
       </c>
       <c r="G595" t="s">
         <v>4782</v>
@@ -26306,7 +26334,7 @@
       <c r="C608" t="s">
         <v>0</v>
       </c>
-      <c r="D608" s="5" t="s">
+      <c r="D608" s="6" t="s">
         <v>4222</v>
       </c>
       <c r="G608" t="s">
@@ -26323,7 +26351,7 @@
       <c r="C609" t="s">
         <v>0</v>
       </c>
-      <c r="D609" s="5" t="s">
+      <c r="D609" s="6" t="s">
         <v>4222</v>
       </c>
       <c r="G609" t="s">
@@ -26340,7 +26368,7 @@
       <c r="C610" t="s">
         <v>0</v>
       </c>
-      <c r="D610" s="5" t="s">
+      <c r="D610" s="6" t="s">
         <v>4222</v>
       </c>
       <c r="G610" t="s">
@@ -26391,8 +26419,8 @@
       <c r="C613" t="s">
         <v>2</v>
       </c>
-      <c r="D613" s="5" t="s">
-        <v>1</v>
+      <c r="D613" s="6" t="s">
+        <v>4224</v>
       </c>
     </row>
     <row r="614" spans="1:7">
@@ -26405,8 +26433,8 @@
       <c r="C614" t="s">
         <v>0</v>
       </c>
-      <c r="D614" s="5" t="s">
-        <v>1</v>
+      <c r="D614" s="6" t="s">
+        <v>4224</v>
       </c>
       <c r="G614" t="s">
         <v>4838</v>
@@ -26641,7 +26669,7 @@
         <v>39</v>
       </c>
       <c r="D628" s="1" t="s">
-        <v>5022</v>
+        <v>5021</v>
       </c>
       <c r="G628" t="s">
         <v>4782</v>
@@ -26776,8 +26804,8 @@
       <c r="C636" t="s">
         <v>39</v>
       </c>
-      <c r="D636" s="5" t="s">
-        <v>1</v>
+      <c r="D636" s="6" t="s">
+        <v>4298</v>
       </c>
       <c r="G636" t="s">
         <v>4782</v>
@@ -26794,7 +26822,7 @@
         <v>39</v>
       </c>
       <c r="D637" s="1" t="s">
-        <v>5023</v>
+        <v>5022</v>
       </c>
       <c r="G637" t="s">
         <v>4782</v>
@@ -26811,7 +26839,7 @@
         <v>39</v>
       </c>
       <c r="D638" s="1" t="s">
-        <v>5023</v>
+        <v>5022</v>
       </c>
       <c r="G638" t="s">
         <v>4782</v>
@@ -26827,8 +26855,8 @@
       <c r="C639" t="s">
         <v>0</v>
       </c>
-      <c r="D639" s="5" t="s">
-        <v>1</v>
+      <c r="D639" s="6" t="s">
+        <v>5022</v>
       </c>
       <c r="G639" t="s">
         <v>4838</v>
@@ -26979,7 +27007,7 @@
         <v>0</v>
       </c>
       <c r="D648" s="1" t="s">
-        <v>5024</v>
+        <v>5023</v>
       </c>
       <c r="G648" t="s">
         <v>4838</v>
@@ -26995,8 +27023,8 @@
       <c r="C649" t="s">
         <v>0</v>
       </c>
-      <c r="D649" s="5" t="s">
-        <v>5024</v>
+      <c r="D649" s="6" t="s">
+        <v>5023</v>
       </c>
       <c r="G649" t="s">
         <v>4838</v>
@@ -27029,7 +27057,9 @@
       <c r="C651" t="s">
         <v>39</v>
       </c>
-      <c r="D651" s="5"/>
+      <c r="D651" s="6" t="s">
+        <v>4426</v>
+      </c>
       <c r="G651" t="s">
         <v>4782</v>
       </c>
@@ -27147,7 +27177,7 @@
         <v>39</v>
       </c>
       <c r="D658" s="1" t="s">
-        <v>5025</v>
+        <v>5024</v>
       </c>
       <c r="G658" t="s">
         <v>4782</v>
@@ -27248,8 +27278,8 @@
       <c r="C664" t="s">
         <v>0</v>
       </c>
-      <c r="D664" s="5" t="s">
-        <v>1</v>
+      <c r="D664" s="6" t="s">
+        <v>5038</v>
       </c>
       <c r="G664" t="s">
         <v>4838</v>
@@ -27265,8 +27295,8 @@
       <c r="C665" t="s">
         <v>0</v>
       </c>
-      <c r="D665" s="5" t="s">
-        <v>1</v>
+      <c r="D665" s="6" t="s">
+        <v>5038</v>
       </c>
       <c r="G665" t="s">
         <v>4838</v>
@@ -27282,8 +27312,8 @@
       <c r="C666" t="s">
         <v>0</v>
       </c>
-      <c r="D666" s="5" t="s">
-        <v>1</v>
+      <c r="D666" s="6" t="s">
+        <v>5038</v>
       </c>
     </row>
     <row r="667" spans="1:7">
@@ -27364,9 +27394,7 @@
       <c r="C671" t="s">
         <v>0</v>
       </c>
-      <c r="D671" s="5" t="s">
-        <v>1</v>
-      </c>
+      <c r="D671" s="5"/>
       <c r="G671" t="s">
         <v>4838</v>
       </c>
@@ -27565,8 +27593,8 @@
       <c r="C683" t="s">
         <v>0</v>
       </c>
-      <c r="D683" s="5" t="s">
-        <v>4432</v>
+      <c r="D683" s="6" t="s">
+        <v>5037</v>
       </c>
       <c r="G683" t="s">
         <v>4838</v>
